--- a/MATLAB Files/test-af-vision.xlsx
+++ b/MATLAB Files/test-af-vision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Therkelsen\Documents\GitHub\MATLAB-Learning\MATLAB Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF1C87D-5C8E-4ECE-8E77-0CA160F59A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8252DE50-68EA-44D1-92A0-E4802010F354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6905A602-F90B-4C53-8283-91DF9ACB03C3}"/>
   </bookViews>
@@ -1370,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9243C2-A04D-413B-B7CF-A4AA58B1A04B}">
   <dimension ref="A2:HZ844"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="103" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O238" sqref="O238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2169,11 +2169,11 @@
     <row r="18" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="6" t="str">
-        <f>LEFT(C3,FIND(";",C3)-1)</f>
+        <f t="shared" ref="B18:B30" si="0">LEFT(C3,FIND(";",C3)-1)</f>
         <v>-47,8</v>
       </c>
       <c r="C18" s="6" t="str">
-        <f>MID(C3,FIND(";",C3)+1,LEN(C3)-FIND(";",C3))</f>
+        <f t="shared" ref="C18:C30" si="1">MID(C3,FIND(";",C3)+1,LEN(C3)-FIND(";",C3))</f>
         <v>-47,2</v>
       </c>
       <c r="D18" s="6">
@@ -2183,16 +2183,16 @@
         <v>-50</v>
       </c>
       <c r="F18" s="7">
-        <f>D18-B18</f>
+        <f t="shared" ref="F18:F30" si="2">D18-B18</f>
         <v>-2.2000000000000028</v>
       </c>
       <c r="G18" s="2">
-        <f>E18-C18</f>
+        <f t="shared" ref="G18:G30" si="3">E18-C18</f>
         <v>-2.7999999999999972</v>
       </c>
       <c r="H18" s="2">
-        <f>ABS(F18)+ABS(G18)</f>
-        <v>5</v>
+        <f>SQRT(ABS(F18)^2+ABS(G18)^2)</f>
+        <v>3.5608987629529705</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="4"/>
@@ -2423,11 +2423,11 @@
     <row r="19" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="str">
-        <f>LEFT(C4,FIND(";",C4)-1)</f>
+        <f t="shared" si="0"/>
         <v>-0,7</v>
       </c>
       <c r="C19" s="6" t="str">
-        <f>MID(C4,FIND(";",C4)+1,LEN(C4)-FIND(";",C4))</f>
+        <f t="shared" si="1"/>
         <v>-47,9</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -2437,16 +2437,16 @@
         <v>-50</v>
       </c>
       <c r="F19" s="7">
-        <f>D19-B19</f>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="G19" s="2">
-        <f>E19-C19</f>
+        <f t="shared" si="3"/>
         <v>-2.1000000000000014</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" ref="H19:H30" si="0">ABS(F19)+ABS(G19)</f>
-        <v>2.8000000000000016</v>
+        <f t="shared" ref="H19:H30" si="4">SQRT(ABS(F19)^2+ABS(G19)^2)</f>
+        <v>2.2135943621178669</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="4"/>
@@ -2454,11 +2454,11 @@
     <row r="20" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="str">
-        <f>LEFT(C5,FIND(";",C5)-1)</f>
+        <f t="shared" si="0"/>
         <v>50,5</v>
       </c>
       <c r="C20" s="6" t="str">
-        <f>MID(C5,FIND(";",C5)+1,LEN(C5)-FIND(";",C5))</f>
+        <f t="shared" si="1"/>
         <v>-47,3</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -2468,16 +2468,16 @@
         <v>-50</v>
       </c>
       <c r="F20" s="7">
-        <f>D20-B20</f>
+        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
       <c r="G20" s="2">
-        <f>E20-C20</f>
+        <f t="shared" si="3"/>
         <v>-2.7000000000000028</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2000000000000028</v>
+        <f t="shared" si="4"/>
+        <v>2.7459060435491991</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="4"/>
@@ -2495,11 +2495,11 @@
     <row r="21" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="str">
-        <f>LEFT(C6,FIND(";",C6)-1)</f>
+        <f t="shared" si="0"/>
         <v>99,1</v>
       </c>
       <c r="C21" s="6" t="str">
-        <f>MID(C6,FIND(";",C6)+1,LEN(C6)-FIND(";",C6))</f>
+        <f t="shared" si="1"/>
         <v>-48,0</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2509,16 +2509,16 @@
         <v>-50</v>
       </c>
       <c r="F21" s="7">
-        <f>D21-B21</f>
+        <f t="shared" si="2"/>
         <v>0.90000000000000568</v>
       </c>
       <c r="G21" s="2">
-        <f>E21-C21</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9000000000000057</v>
+        <f t="shared" si="4"/>
+        <v>2.1931712199461333</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="4"/>
@@ -2536,11 +2536,11 @@
     <row r="22" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="6" t="str">
-        <f>LEFT(C7,FIND(";",C7)-1)</f>
+        <f t="shared" si="0"/>
         <v>147,8</v>
       </c>
       <c r="C22" s="6" t="str">
-        <f>MID(C7,FIND(";",C7)+1,LEN(C7)-FIND(";",C7))</f>
+        <f t="shared" si="1"/>
         <v>-48,6</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2550,16 +2550,16 @@
         <v>-50</v>
       </c>
       <c r="F22" s="7">
-        <f>D22-B22</f>
+        <f t="shared" si="2"/>
         <v>2.1999999999999886</v>
       </c>
       <c r="G22" s="2">
-        <f>E22-C22</f>
+        <f t="shared" si="3"/>
         <v>-1.3999999999999986</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999872</v>
+        <f t="shared" si="4"/>
+        <v>2.6076809620810493</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="4"/>
@@ -2577,11 +2577,11 @@
     <row r="23" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="6" t="str">
-        <f>LEFT(C8,FIND(";",C8)-1)</f>
+        <f t="shared" si="0"/>
         <v>198,9</v>
       </c>
       <c r="C23" s="6" t="str">
-        <f>MID(C8,FIND(";",C8)+1,LEN(C8)-FIND(";",C8))</f>
+        <f t="shared" si="1"/>
         <v>-49,3</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2591,16 +2591,16 @@
         <v>-50</v>
       </c>
       <c r="F23" s="7">
-        <f>D23-B23</f>
+        <f t="shared" si="2"/>
         <v>1.0999999999999943</v>
       </c>
       <c r="G23" s="2">
-        <f>E23-C23</f>
+        <f t="shared" si="3"/>
         <v>-0.70000000000000284</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999972</v>
+        <f t="shared" si="4"/>
+        <v>1.3038404810405264</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="4"/>
@@ -2618,11 +2618,11 @@
     <row r="24" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="6" t="str">
-        <f>LEFT(C9,FIND(";",C9)-1)</f>
+        <f t="shared" si="0"/>
         <v>248,8</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f>MID(C9,FIND(";",C9)+1,LEN(C9)-FIND(";",C9))</f>
+        <f t="shared" si="1"/>
         <v>-49,9</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2632,16 +2632,16 @@
         <v>-50</v>
       </c>
       <c r="F24" s="7">
-        <f>D24-B24</f>
+        <f t="shared" si="2"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="G24" s="2">
-        <f>E24-C24</f>
+        <f t="shared" si="3"/>
         <v>-0.10000000000000142</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999901</v>
+        <f t="shared" si="4"/>
+        <v>1.2041594578792183</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="4"/>
@@ -2659,11 +2659,11 @@
     <row r="25" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="str">
-        <f>LEFT(C10,FIND(";",C10)-1)</f>
+        <f t="shared" si="0"/>
         <v>297,7</v>
       </c>
       <c r="C25" s="6" t="str">
-        <f>MID(C10,FIND(";",C10)+1,LEN(C10)-FIND(";",C10))</f>
+        <f t="shared" si="1"/>
         <v>-50,6</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -2673,16 +2673,16 @@
         <v>-50</v>
       </c>
       <c r="F25" s="7">
-        <f>D25-B25</f>
+        <f t="shared" si="2"/>
         <v>2.3000000000000114</v>
       </c>
       <c r="G25" s="2">
-        <f>E25-C25</f>
+        <f t="shared" si="3"/>
         <v>0.60000000000000142</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9000000000000128</v>
+        <f t="shared" si="4"/>
+        <v>2.3769728648009538</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="4"/>
@@ -2700,11 +2700,11 @@
     <row r="26" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="str">
-        <f>LEFT(C11,FIND(";",C11)-1)</f>
+        <f t="shared" si="0"/>
         <v>347,6</v>
       </c>
       <c r="C26" s="6" t="str">
-        <f>MID(C11,FIND(";",C11)+1,LEN(C11)-FIND(";",C11))</f>
+        <f t="shared" si="1"/>
         <v>-50,0</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -2714,15 +2714,15 @@
         <v>-50</v>
       </c>
       <c r="F26" s="7">
-        <f>D26-B26</f>
+        <f t="shared" si="2"/>
         <v>2.3999999999999773</v>
       </c>
       <c r="G26" s="2">
-        <f>E26-C26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.3999999999999773</v>
       </c>
       <c r="I26" s="2"/>
@@ -2741,11 +2741,11 @@
     <row r="27" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="6" t="str">
-        <f>LEFT(C12,FIND(";",C12)-1)</f>
+        <f t="shared" si="0"/>
         <v>397,7</v>
       </c>
       <c r="C27" s="6" t="str">
-        <f>MID(C12,FIND(";",C12)+1,LEN(C12)-FIND(";",C12))</f>
+        <f t="shared" si="1"/>
         <v>-51,9</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -2755,16 +2755,16 @@
         <v>-50</v>
       </c>
       <c r="F27" s="7">
-        <f>D27-B27</f>
+        <f t="shared" si="2"/>
         <v>2.3000000000000114</v>
       </c>
       <c r="G27" s="2">
-        <f>E27-C27</f>
+        <f t="shared" si="3"/>
         <v>1.8999999999999986</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2000000000000099</v>
+        <f t="shared" si="4"/>
+        <v>2.9832867780352674</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="4"/>
@@ -2782,11 +2782,11 @@
     <row r="28" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="str">
-        <f>LEFT(C13,FIND(";",C13)-1)</f>
+        <f t="shared" si="0"/>
         <v>446,6</v>
       </c>
       <c r="C28" s="6" t="str">
-        <f>MID(C13,FIND(";",C13)+1,LEN(C13)-FIND(";",C13))</f>
+        <f t="shared" si="1"/>
         <v>-49,0</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2796,16 +2796,16 @@
         <v>-50</v>
       </c>
       <c r="F28" s="7">
-        <f>D28-B28</f>
+        <f t="shared" si="2"/>
         <v>3.3999999999999773</v>
       </c>
       <c r="G28" s="2">
-        <f>E28-C28</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3999999999999773</v>
+        <f t="shared" si="4"/>
+        <v>3.5440090293338482</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="4"/>
@@ -2823,11 +2823,11 @@
     <row r="29" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="6" t="str">
-        <f>LEFT(C14,FIND(";",C14)-1)</f>
+        <f t="shared" si="0"/>
         <v>496,7</v>
       </c>
       <c r="C29" s="6" t="str">
-        <f>MID(C14,FIND(";",C14)+1,LEN(C14)-FIND(";",C14))</f>
+        <f t="shared" si="1"/>
         <v>-50,8</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -2837,16 +2837,16 @@
         <v>-50</v>
       </c>
       <c r="F29" s="7">
-        <f>D29-B29</f>
+        <f t="shared" si="2"/>
         <v>3.3000000000000114</v>
       </c>
       <c r="G29" s="2">
-        <f>E29-C29</f>
+        <f t="shared" si="3"/>
         <v>0.79999999999999716</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1000000000000085</v>
+        <f t="shared" si="4"/>
+        <v>3.3955853692699391</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="4"/>
@@ -2864,11 +2864,11 @@
     <row r="30" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="6" t="str">
-        <f>LEFT(C15,FIND(";",C15)-1)</f>
+        <f t="shared" si="0"/>
         <v>547,9</v>
       </c>
       <c r="C30" s="6" t="str">
-        <f>MID(C15,FIND(";",C15)+1,LEN(C15)-FIND(";",C15))</f>
+        <f t="shared" si="1"/>
         <v>-51,5</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -2878,21 +2878,21 @@
         <v>-50</v>
       </c>
       <c r="F30" s="7">
-        <f>D30-B30</f>
+        <f t="shared" si="2"/>
         <v>2.1000000000000227</v>
       </c>
       <c r="G30" s="2">
-        <f>E30-C30</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6000000000000227</v>
+        <f t="shared" si="4"/>
+        <v>2.5806975801128065</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="4">
         <f>AVERAGE(H18:H30)</f>
-        <v>3.2461538461538453</v>
+        <v>2.5469079162399808</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="6"/>
@@ -2930,11 +2930,11 @@
     <row r="32" spans="1:234" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="6" t="str">
-        <f>LEFT(D3,FIND(";",D3)-1)</f>
+        <f t="shared" ref="B32:B44" si="5">LEFT(D3,FIND(";",D3)-1)</f>
         <v>-48,5</v>
       </c>
       <c r="C32" s="6" t="str">
-        <f>MID(D3,FIND(";",D3)+1,LEN(D3)-FIND(";",D3))</f>
+        <f t="shared" ref="C32:C44" si="6">MID(D3,FIND(";",D3)+1,LEN(D3)-FIND(";",D3))</f>
         <v>1,8</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -2944,16 +2944,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <f>D32-B32</f>
+        <f t="shared" ref="F32:F44" si="7">D32-B32</f>
         <v>-1.5</v>
       </c>
       <c r="G32" s="2">
-        <f>E32-C32</f>
+        <f t="shared" ref="G32:G44" si="8">E32-C32</f>
         <v>-1.8</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" ref="H32:H95" si="1">ABS(F32)+ABS(G32)</f>
-        <v>3.3</v>
+        <f t="shared" ref="H32:H95" si="9">SQRT(ABS(F32)^2+ABS(G32)^2)</f>
+        <v>2.3430749027719964</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="4"/>
@@ -2971,11 +2971,11 @@
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="6" t="str">
-        <f>LEFT(D4,FIND(";",D4)-1)</f>
+        <f t="shared" si="5"/>
         <v>1,2</v>
       </c>
       <c r="C33" s="6" t="str">
-        <f>MID(D4,FIND(";",D4)+1,LEN(D4)-FIND(";",D4))</f>
+        <f t="shared" si="6"/>
         <v>2,3</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -2985,16 +2985,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <f>D33-B33</f>
+        <f t="shared" si="7"/>
         <v>-1.2</v>
       </c>
       <c r="G33" s="2">
-        <f>E33-C33</f>
+        <f t="shared" si="8"/>
         <v>-2.2999999999999998</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+        <f t="shared" si="9"/>
+        <v>2.5942243542145693</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="4"/>
@@ -3012,11 +3012,11 @@
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="6" t="str">
-        <f>LEFT(D5,FIND(";",D5)-1)</f>
+        <f t="shared" si="5"/>
         <v>49,8</v>
       </c>
       <c r="C34" s="6" t="str">
-        <f>MID(D5,FIND(";",D5)+1,LEN(D5)-FIND(";",D5))</f>
+        <f t="shared" si="6"/>
         <v>1,7</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -3026,16 +3026,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <f>D34-B34</f>
+        <f t="shared" si="7"/>
         <v>0.20000000000000284</v>
       </c>
       <c r="G34" s="2">
-        <f>E34-C34</f>
+        <f t="shared" si="8"/>
         <v>-1.7</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9000000000000028</v>
+        <f t="shared" si="9"/>
+        <v>1.7117242768623691</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="4"/>
@@ -3053,11 +3053,11 @@
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="6" t="str">
-        <f>LEFT(D6,FIND(";",D6)-1)</f>
+        <f t="shared" si="5"/>
         <v>99,5</v>
       </c>
       <c r="C35" s="6" t="str">
-        <f>MID(D6,FIND(";",D6)+1,LEN(D6)-FIND(";",D6))</f>
+        <f t="shared" si="6"/>
         <v>-0,1</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -3067,16 +3067,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <f>D35-B35</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="G35" s="2">
-        <f>E35-C35</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f t="shared" si="9"/>
+        <v>0.50990195135927852</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="4"/>
@@ -3094,11 +3094,11 @@
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="6" t="str">
-        <f>LEFT(D7,FIND(";",D7)-1)</f>
+        <f t="shared" si="5"/>
         <v>149,4</v>
       </c>
       <c r="C36" s="6" t="str">
-        <f>MID(D7,FIND(";",D7)+1,LEN(D7)-FIND(";",D7))</f>
+        <f t="shared" si="6"/>
         <v>0,4</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <f>D36-B36</f>
+        <f t="shared" si="7"/>
         <v>0.59999999999999432</v>
       </c>
       <c r="G36" s="2">
-        <f>E36-C36</f>
+        <f t="shared" si="8"/>
         <v>-0.4</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99999999999999434</v>
+        <f t="shared" si="9"/>
+        <v>0.72111025509279314</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="4"/>
@@ -3135,11 +3135,11 @@
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="str">
-        <f>LEFT(D8,FIND(";",D8)-1)</f>
+        <f t="shared" si="5"/>
         <v>198,1</v>
       </c>
       <c r="C37" s="6" t="str">
-        <f>MID(D8,FIND(";",D8)+1,LEN(D8)-FIND(";",D8))</f>
+        <f t="shared" si="6"/>
         <v>-0,2</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -3149,16 +3149,16 @@
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <f>D37-B37</f>
+        <f t="shared" si="7"/>
         <v>1.9000000000000057</v>
       </c>
       <c r="G37" s="2">
-        <f>E37-C37</f>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1000000000000059</v>
+        <f t="shared" si="9"/>
+        <v>1.9104973174542856</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="4"/>
@@ -3176,11 +3176,11 @@
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="str">
-        <f>LEFT(D9,FIND(";",D9)-1)</f>
+        <f t="shared" si="5"/>
         <v>248,0</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f>MID(D9,FIND(";",D9)+1,LEN(D9)-FIND(";",D9))</f>
+        <f t="shared" si="6"/>
         <v>-0,8</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <f>D38-B38</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G38" s="2">
-        <f>E38-C38</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
+        <f t="shared" si="9"/>
+        <v>2.1540659228538019</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
@@ -3217,11 +3217,11 @@
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="str">
-        <f>LEFT(D10,FIND(";",D10)-1)</f>
+        <f t="shared" si="5"/>
         <v>298,0</v>
       </c>
       <c r="C39" s="6" t="str">
-        <f>MID(D10,FIND(";",D10)+1,LEN(D10)-FIND(";",D10))</f>
+        <f t="shared" si="6"/>
         <v>-0,3</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <f>D39-B39</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G39" s="2">
-        <f>E39-C39</f>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
+        <f t="shared" si="9"/>
+        <v>2.0223748416156684</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="4"/>
@@ -3258,11 +3258,11 @@
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="str">
-        <f>LEFT(D11,FIND(";",D11)-1)</f>
+        <f t="shared" si="5"/>
         <v>347,9</v>
       </c>
       <c r="C40" s="6" t="str">
-        <f>MID(D11,FIND(";",D11)+1,LEN(D11)-FIND(";",D11))</f>
+        <f t="shared" si="6"/>
         <v>-2,1</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <f>D40-B40</f>
+        <f t="shared" si="7"/>
         <v>2.1000000000000227</v>
       </c>
       <c r="G40" s="2">
-        <f>E40-C40</f>
+        <f t="shared" si="8"/>
         <v>2.1</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="1"/>
-        <v>4.2000000000000224</v>
+        <f t="shared" si="9"/>
+        <v>2.9698484809835159</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="4"/>
@@ -3299,11 +3299,11 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="str">
-        <f>LEFT(D12,FIND(";",D12)-1)</f>
+        <f t="shared" si="5"/>
         <v>398,0</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f>MID(D12,FIND(";",D12)+1,LEN(D12)-FIND(";",D12))</f>
+        <f t="shared" si="6"/>
         <v>-1,5</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <f>D41-B41</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G41" s="2">
-        <f>E41-C41</f>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+        <f t="shared" si="9"/>
+        <v>2.5</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="4"/>
@@ -3340,11 +3340,11 @@
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="str">
-        <f>LEFT(D13,FIND(";",D13)-1)</f>
+        <f t="shared" si="5"/>
         <v>448,1</v>
       </c>
       <c r="C42" s="6" t="str">
-        <f>MID(D13,FIND(";",D13)+1,LEN(D13)-FIND(";",D13))</f>
+        <f t="shared" si="6"/>
         <v>-2,1</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <f>D42-B42</f>
+        <f t="shared" si="7"/>
         <v>1.8999999999999773</v>
       </c>
       <c r="G42" s="2">
-        <f>E42-C42</f>
+        <f t="shared" si="8"/>
         <v>2.1</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="1"/>
-        <v>3.9999999999999774</v>
+        <f t="shared" si="9"/>
+        <v>2.831960451701244</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="4"/>
@@ -3381,11 +3381,11 @@
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="str">
-        <f>LEFT(D14,FIND(";",D14)-1)</f>
+        <f t="shared" si="5"/>
         <v>498,2</v>
       </c>
       <c r="C43" s="6" t="str">
-        <f>MID(D14,FIND(";",D14)+1,LEN(D14)-FIND(";",D14))</f>
+        <f t="shared" si="6"/>
         <v>-1,6</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <f>D43-B43</f>
+        <f t="shared" si="7"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="G43" s="2">
-        <f>E43-C43</f>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000115</v>
+        <f t="shared" si="9"/>
+        <v>2.4083189157584677</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="4"/>
@@ -3422,11 +3422,11 @@
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="str">
-        <f>LEFT(D15,FIND(";",D15)-1)</f>
+        <f t="shared" si="5"/>
         <v>548,4</v>
       </c>
       <c r="C44" s="6" t="str">
-        <f>MID(D15,FIND(";",D15)+1,LEN(D15)-FIND(";",D15))</f>
+        <f t="shared" si="6"/>
         <v>-1,1</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -3436,21 +3436,21 @@
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <f>D44-B44</f>
+        <f t="shared" si="7"/>
         <v>1.6000000000000227</v>
       </c>
       <c r="G44" s="2">
-        <f>E44-C44</f>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7000000000000228</v>
+        <f t="shared" si="9"/>
+        <v>1.9416487838947787</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="4">
         <f>AVERAGE(H32:H44)</f>
-        <v>2.7153846153846186</v>
+        <v>2.0475961888125207</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="6"/>
@@ -3488,11 +3488,11 @@
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="str">
-        <f>LEFT(E3,FIND(";",E3)-1)</f>
+        <f t="shared" ref="B46:B58" si="10">LEFT(E3,FIND(";",E3)-1)</f>
         <v>-48,1</v>
       </c>
       <c r="C46" s="6" t="str">
-        <f>MID(E3,FIND(";",E3)+1,LEN(E3)-FIND(";",E3))</f>
+        <f t="shared" ref="C46:C58" si="11">MID(E3,FIND(";",E3)+1,LEN(E3)-FIND(";",E3))</f>
         <v>51,9</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -3502,16 +3502,16 @@
         <v>50</v>
       </c>
       <c r="F46" s="7">
-        <f>D46-B46</f>
+        <f t="shared" ref="F46:F58" si="12">D46-B46</f>
         <v>-1.8999999999999986</v>
       </c>
       <c r="G46" s="2">
-        <f>E46-C46</f>
+        <f t="shared" ref="G46:G58" si="13">E46-C46</f>
         <v>-1.8999999999999986</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" ref="H46" si="2">ABS(F46)+ABS(G46)</f>
-        <v>3.7999999999999972</v>
+        <f t="shared" ref="H46" si="14">SQRT(ABS(F46)^2+ABS(G46)^2)</f>
+        <v>2.6870057685088784</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="4"/>
@@ -3529,11 +3529,11 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="str">
-        <f>LEFT(E4,FIND(";",E4)-1)</f>
+        <f t="shared" si="10"/>
         <v>1,6</v>
       </c>
       <c r="C47" s="6" t="str">
-        <f>MID(E4,FIND(";",E4)+1,LEN(E4)-FIND(";",E4))</f>
+        <f t="shared" si="11"/>
         <v>51,3</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -3543,16 +3543,16 @@
         <v>50</v>
       </c>
       <c r="F47" s="7">
-        <f>D47-B47</f>
+        <f t="shared" si="12"/>
         <v>-1.6</v>
       </c>
       <c r="G47" s="2">
-        <f>E47-C47</f>
+        <f t="shared" si="13"/>
         <v>-1.2999999999999972</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="1"/>
-        <v>2.8999999999999972</v>
+        <f t="shared" si="9"/>
+        <v>2.0615528128088285</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="4"/>
@@ -3570,11 +3570,11 @@
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="str">
-        <f>LEFT(E5,FIND(";",E5)-1)</f>
+        <f t="shared" si="10"/>
         <v>50,2</v>
       </c>
       <c r="C48" s="6" t="str">
-        <f>MID(E5,FIND(";",E5)+1,LEN(E5)-FIND(";",E5))</f>
+        <f t="shared" si="11"/>
         <v>50,7</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -3584,16 +3584,16 @@
         <v>50</v>
       </c>
       <c r="F48" s="7">
-        <f>D48-B48</f>
+        <f t="shared" si="12"/>
         <v>-0.20000000000000284</v>
       </c>
       <c r="G48" s="2">
-        <f>E48-C48</f>
+        <f t="shared" si="13"/>
         <v>-0.70000000000000284</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="1"/>
-        <v>0.90000000000000568</v>
+        <f t="shared" si="9"/>
+        <v>0.72801098892805538</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="4"/>
@@ -3611,11 +3611,11 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="str">
-        <f>LEFT(E6,FIND(";",E6)-1)</f>
+        <f t="shared" si="10"/>
         <v>100,0</v>
       </c>
       <c r="C49" s="6" t="str">
-        <f>MID(E6,FIND(";",E6)+1,LEN(E6)-FIND(";",E6))</f>
+        <f t="shared" si="11"/>
         <v>50,1</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -3625,15 +3625,15 @@
         <v>50</v>
       </c>
       <c r="F49" s="7">
-        <f>D49-B49</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G49" s="2">
-        <f>E49-C49</f>
+        <f t="shared" si="13"/>
         <v>-0.10000000000000142</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000142</v>
       </c>
       <c r="I49" s="2"/>
@@ -3652,11 +3652,11 @@
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="str">
-        <f>LEFT(E7,FIND(";",E7)-1)</f>
+        <f t="shared" si="10"/>
         <v>149,8</v>
       </c>
       <c r="C50" s="6" t="str">
-        <f>MID(E7,FIND(";",E7)+1,LEN(E7)-FIND(";",E7))</f>
+        <f t="shared" si="11"/>
         <v>49,5</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -3666,16 +3666,16 @@
         <v>50</v>
       </c>
       <c r="F50" s="7">
-        <f>D50-B50</f>
+        <f t="shared" si="12"/>
         <v>0.19999999999998863</v>
       </c>
       <c r="G50" s="2">
-        <f>E50-C50</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="1"/>
-        <v>0.69999999999998863</v>
+        <f t="shared" si="9"/>
+        <v>0.53851648071344616</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="4"/>
@@ -3693,11 +3693,11 @@
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="str">
-        <f>LEFT(E8,FIND(";",E8)-1)</f>
+        <f t="shared" si="10"/>
         <v>198,5</v>
       </c>
       <c r="C51" s="6" t="str">
-        <f>MID(E8,FIND(";",E8)+1,LEN(E8)-FIND(";",E8))</f>
+        <f t="shared" si="11"/>
         <v>48,9</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -3707,16 +3707,16 @@
         <v>50</v>
       </c>
       <c r="F51" s="7">
-        <f>D51-B51</f>
+        <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
       <c r="G51" s="2">
-        <f>E51-C51</f>
+        <f t="shared" si="13"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="1"/>
-        <v>2.6000000000000014</v>
+        <f t="shared" si="9"/>
+        <v>1.8601075237738283</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="4"/>
@@ -3734,11 +3734,11 @@
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="str">
-        <f>LEFT(E9,FIND(";",E9)-1)</f>
+        <f t="shared" si="10"/>
         <v>248,4</v>
       </c>
       <c r="C52" s="6" t="str">
-        <f>MID(E9,FIND(";",E9)+1,LEN(E9)-FIND(";",E9))</f>
+        <f t="shared" si="11"/>
         <v>48,3</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -3748,16 +3748,16 @@
         <v>50</v>
       </c>
       <c r="F52" s="7">
-        <f>D52-B52</f>
+        <f t="shared" si="12"/>
         <v>1.5999999999999943</v>
       </c>
       <c r="G52" s="2">
-        <f>E52-C52</f>
+        <f t="shared" si="13"/>
         <v>1.7000000000000028</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="1"/>
-        <v>3.2999999999999972</v>
+        <f t="shared" si="9"/>
+        <v>2.3345235059857488</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="4"/>
@@ -3775,11 +3775,11 @@
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="str">
-        <f>LEFT(E10,FIND(";",E10)-1)</f>
+        <f t="shared" si="10"/>
         <v>298,3</v>
       </c>
       <c r="C53" s="6" t="str">
-        <f>MID(E10,FIND(";",E10)+1,LEN(E10)-FIND(";",E10))</f>
+        <f t="shared" si="11"/>
         <v>48,9</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -3789,16 +3789,16 @@
         <v>50</v>
       </c>
       <c r="F53" s="7">
-        <f>D53-B53</f>
+        <f t="shared" si="12"/>
         <v>1.6999999999999886</v>
       </c>
       <c r="G53" s="2">
-        <f>E53-C53</f>
+        <f t="shared" si="13"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7999999999999901</v>
+        <f t="shared" si="9"/>
+        <v>2.02484567313165</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="4"/>
@@ -3816,11 +3816,11 @@
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="str">
-        <f>LEFT(E11,FIND(";",E11)-1)</f>
+        <f t="shared" si="10"/>
         <v>348,3</v>
       </c>
       <c r="C54" s="6" t="str">
-        <f>MID(E11,FIND(";",E11)+1,LEN(E11)-FIND(";",E11))</f>
+        <f t="shared" si="11"/>
         <v>48,2</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -3830,16 +3830,16 @@
         <v>50</v>
       </c>
       <c r="F54" s="7">
-        <f>D54-B54</f>
+        <f t="shared" si="12"/>
         <v>1.6999999999999886</v>
       </c>
       <c r="G54" s="2">
-        <f>E54-C54</f>
+        <f t="shared" si="13"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4999999999999858</v>
+        <f t="shared" si="9"/>
+        <v>2.4758836806279794</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="4"/>
@@ -3857,11 +3857,11 @@
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="str">
-        <f>LEFT(E12,FIND(";",E12)-1)</f>
+        <f t="shared" si="10"/>
         <v>398,3</v>
       </c>
       <c r="C55" s="6" t="str">
-        <f>MID(E12,FIND(";",E12)+1,LEN(E12)-FIND(";",E12))</f>
+        <f t="shared" si="11"/>
         <v>47,6</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -3871,16 +3871,16 @@
         <v>50</v>
       </c>
       <c r="F55" s="7">
-        <f>D55-B55</f>
+        <f t="shared" si="12"/>
         <v>1.6999999999999886</v>
       </c>
       <c r="G55" s="2">
-        <f>E55-C55</f>
+        <f t="shared" si="13"/>
         <v>2.3999999999999986</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="1"/>
-        <v>4.0999999999999872</v>
+        <f t="shared" si="9"/>
+        <v>2.9410882339705409</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="4"/>
@@ -3898,11 +3898,11 @@
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="str">
-        <f>LEFT(E13,FIND(";",E13)-1)</f>
+        <f t="shared" si="10"/>
         <v>448,4</v>
       </c>
       <c r="C56" s="6" t="str">
-        <f>MID(E13,FIND(";",E13)+1,LEN(E13)-FIND(";",E13))</f>
+        <f t="shared" si="11"/>
         <v>48,2</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -3912,16 +3912,16 @@
         <v>50</v>
       </c>
       <c r="F56" s="7">
-        <f>D56-B56</f>
+        <f t="shared" si="12"/>
         <v>1.6000000000000227</v>
       </c>
       <c r="G56" s="2">
-        <f>E56-C56</f>
+        <f t="shared" si="13"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000199</v>
+        <f t="shared" si="9"/>
+        <v>2.4083189157584721</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="4"/>
@@ -3939,11 +3939,11 @@
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="str">
-        <f>LEFT(E14,FIND(";",E14)-1)</f>
+        <f t="shared" si="10"/>
         <v>497,3</v>
       </c>
       <c r="C57" s="6" t="str">
-        <f>MID(E14,FIND(";",E14)+1,LEN(E14)-FIND(";",E14))</f>
+        <f t="shared" si="11"/>
         <v>48,8</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -3953,16 +3953,16 @@
         <v>50</v>
       </c>
       <c r="F57" s="7">
-        <f>D57-B57</f>
+        <f t="shared" si="12"/>
         <v>2.6999999999999886</v>
       </c>
       <c r="G57" s="2">
-        <f>E57-C57</f>
+        <f t="shared" si="13"/>
         <v>1.2000000000000028</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="1"/>
-        <v>3.8999999999999915</v>
+        <f t="shared" si="9"/>
+        <v>2.9546573405388221</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="4"/>
@@ -3980,11 +3980,11 @@
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="6" t="str">
-        <f>LEFT(E15,FIND(";",E15)-1)</f>
+        <f t="shared" si="10"/>
         <v>548,7</v>
       </c>
       <c r="C58" s="6" t="str">
-        <f>MID(E15,FIND(";",E15)+1,LEN(E15)-FIND(";",E15))</f>
+        <f t="shared" si="11"/>
         <v>48,1</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -3994,21 +3994,21 @@
         <v>50</v>
       </c>
       <c r="F58" s="7">
-        <f>D58-B58</f>
+        <f t="shared" si="12"/>
         <v>1.2999999999999545</v>
       </c>
       <c r="G58" s="2">
-        <f>E58-C58</f>
+        <f t="shared" si="13"/>
         <v>1.8999999999999986</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1999999999999531</v>
+        <f t="shared" si="9"/>
+        <v>2.3021728866442408</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="4">
         <f>AVERAGE(H46:H58)</f>
-        <v>2.7076923076923012</v>
+        <v>1.9551295239531148</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="6"/>
@@ -4046,11 +4046,11 @@
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="6" t="str">
-        <f>LEFT(F3,FIND(";",F3)-1)</f>
+        <f t="shared" ref="B60:B72" si="15">LEFT(F3,FIND(";",F3)-1)</f>
         <v>-48,9</v>
       </c>
       <c r="C60" s="6" t="str">
-        <f>MID(F3,FIND(";",F3)+1,LEN(F3)-FIND(";",F3))</f>
+        <f t="shared" ref="C60:C72" si="16">MID(F3,FIND(";",F3)+1,LEN(F3)-FIND(";",F3))</f>
         <v>100,9</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -4060,16 +4060,16 @@
         <v>100</v>
       </c>
       <c r="F60" s="7">
-        <f>D60-B60</f>
+        <f t="shared" ref="F60:F72" si="17">D60-B60</f>
         <v>-1.1000000000000014</v>
       </c>
       <c r="G60" s="2">
-        <f>E60-C60</f>
+        <f t="shared" ref="G60:G72" si="18">E60-C60</f>
         <v>-0.90000000000000568</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" ref="H60" si="3">ABS(F60)+ABS(G60)</f>
-        <v>2.0000000000000071</v>
+        <f t="shared" ref="H60" si="19">SQRT(ABS(F60)^2+ABS(G60)^2)</f>
+        <v>1.4212670403551941</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="4"/>
@@ -4087,11 +4087,11 @@
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="6" t="str">
-        <f>LEFT(F4,FIND(";",F4)-1)</f>
+        <f t="shared" si="15"/>
         <v>0,9</v>
       </c>
       <c r="C61" s="6" t="str">
-        <f>MID(F4,FIND(";",F4)+1,LEN(F4)-FIND(";",F4))</f>
+        <f t="shared" si="16"/>
         <v>100,3</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -4101,16 +4101,16 @@
         <v>100</v>
       </c>
       <c r="F61" s="7">
-        <f>D61-B61</f>
+        <f t="shared" si="17"/>
         <v>-0.9</v>
       </c>
       <c r="G61" s="2">
-        <f>E61-C61</f>
+        <f t="shared" si="18"/>
         <v>-0.29999999999999716</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1999999999999971</v>
+        <f t="shared" si="9"/>
+        <v>0.94868329805051288</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="4"/>
@@ -4128,11 +4128,11 @@
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="6" t="str">
-        <f>LEFT(F5,FIND(";",F5)-1)</f>
+        <f t="shared" si="15"/>
         <v>49,5</v>
       </c>
       <c r="C62" s="6" t="str">
-        <f>MID(F5,FIND(";",F5)+1,LEN(F5)-FIND(";",F5))</f>
+        <f t="shared" si="16"/>
         <v>99,7</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -4142,16 +4142,16 @@
         <v>100</v>
       </c>
       <c r="F62" s="7">
-        <f>D62-B62</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G62" s="2">
-        <f>E62-C62</f>
+        <f t="shared" si="18"/>
         <v>0.29999999999999716</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999716</v>
+        <f t="shared" si="9"/>
+        <v>0.58309518948452854</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="4"/>
@@ -4169,11 +4169,11 @@
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="6" t="str">
-        <f>LEFT(F6,FIND(";",F6)-1)</f>
+        <f t="shared" si="15"/>
         <v>100,4</v>
       </c>
       <c r="C63" s="6" t="str">
-        <f>MID(F6,FIND(";",F6)+1,LEN(F6)-FIND(";",F6))</f>
+        <f t="shared" si="16"/>
         <v>99,1</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -4183,16 +4183,16 @@
         <v>100</v>
       </c>
       <c r="F63" s="7">
-        <f>D63-B63</f>
+        <f t="shared" si="17"/>
         <v>-0.40000000000000568</v>
       </c>
       <c r="G63" s="2">
-        <f>E63-C63</f>
+        <f t="shared" si="18"/>
         <v>0.90000000000000568</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3000000000000114</v>
+        <f t="shared" si="9"/>
+        <v>0.98488578017961803</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="4"/>
@@ -4210,11 +4210,11 @@
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="6" t="str">
-        <f>LEFT(F7,FIND(";",F7)-1)</f>
+        <f t="shared" si="15"/>
         <v>149,0</v>
       </c>
       <c r="C64" s="6" t="str">
-        <f>MID(F7,FIND(";",F7)+1,LEN(F7)-FIND(";",F7))</f>
+        <f t="shared" si="16"/>
         <v>98,5</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -4224,16 +4224,16 @@
         <v>100</v>
       </c>
       <c r="F64" s="7">
-        <f>D64-B64</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G64" s="2">
-        <f>E64-C64</f>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f t="shared" si="9"/>
+        <v>1.8027756377319946</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="4"/>
@@ -4251,11 +4251,11 @@
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="6" t="str">
-        <f>LEFT(F8,FIND(";",F8)-1)</f>
+        <f t="shared" si="15"/>
         <v>198,9</v>
       </c>
       <c r="C65" s="6" t="str">
-        <f>MID(F8,FIND(";",F8)+1,LEN(F8)-FIND(";",F8))</f>
+        <f t="shared" si="16"/>
         <v>98,0</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -4265,16 +4265,16 @@
         <v>100</v>
       </c>
       <c r="F65" s="7">
-        <f>D65-B65</f>
+        <f t="shared" si="17"/>
         <v>1.0999999999999943</v>
       </c>
       <c r="G65" s="2">
-        <f>E65-C65</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0999999999999943</v>
+        <f t="shared" si="9"/>
+        <v>2.2825424421026628</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="4"/>
@@ -4292,11 +4292,11 @@
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="6" t="str">
-        <f>LEFT(F9,FIND(";",F9)-1)</f>
+        <f t="shared" si="15"/>
         <v>248,8</v>
       </c>
       <c r="C66" s="6" t="str">
-        <f>MID(F9,FIND(";",F9)+1,LEN(F9)-FIND(";",F9))</f>
+        <f t="shared" si="16"/>
         <v>98,5</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -4306,16 +4306,16 @@
         <v>100</v>
       </c>
       <c r="F66" s="7">
-        <f>D66-B66</f>
+        <f t="shared" si="17"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="G66" s="2">
-        <f>E66-C66</f>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="1"/>
-        <v>2.6999999999999886</v>
+        <f t="shared" si="9"/>
+        <v>1.9209372712298476</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="4"/>
@@ -4333,11 +4333,11 @@
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="6" t="str">
-        <f>LEFT(F10,FIND(";",F10)-1)</f>
+        <f t="shared" si="15"/>
         <v>298,7</v>
       </c>
       <c r="C67" s="6" t="str">
-        <f>MID(F10,FIND(";",F10)+1,LEN(F10)-FIND(";",F10))</f>
+        <f t="shared" si="16"/>
         <v>97,9</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -4347,16 +4347,16 @@
         <v>100</v>
       </c>
       <c r="F67" s="7">
-        <f>D67-B67</f>
+        <f t="shared" si="17"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="G67" s="2">
-        <f>E67-C67</f>
+        <f t="shared" si="18"/>
         <v>2.0999999999999943</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000057</v>
+        <f t="shared" si="9"/>
+        <v>2.4698178070456951</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="4"/>
@@ -4374,11 +4374,11 @@
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="6" t="str">
-        <f>LEFT(F11,FIND(";",F11)-1)</f>
+        <f t="shared" si="15"/>
         <v>348,7</v>
       </c>
       <c r="C68" s="6" t="str">
-        <f>MID(F11,FIND(";",F11)+1,LEN(F11)-FIND(";",F11))</f>
+        <f t="shared" si="16"/>
         <v>97,4</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -4388,16 +4388,16 @@
         <v>100</v>
       </c>
       <c r="F68" s="7">
-        <f>D68-B68</f>
+        <f t="shared" si="17"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="G68" s="2">
-        <f>E68-C68</f>
+        <f t="shared" si="18"/>
         <v>2.5999999999999943</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="1"/>
-        <v>3.9000000000000057</v>
+        <f t="shared" si="9"/>
+        <v>2.9068883707497264</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="4"/>
@@ -4415,11 +4415,11 @@
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="6" t="str">
-        <f>LEFT(F12,FIND(";",F12)-1)</f>
+        <f t="shared" si="15"/>
         <v>398,7</v>
       </c>
       <c r="C69" s="6" t="str">
-        <f>MID(F12,FIND(";",F12)+1,LEN(F12)-FIND(";",F12))</f>
+        <f t="shared" si="16"/>
         <v>97,9</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -4429,16 +4429,16 @@
         <v>100</v>
       </c>
       <c r="F69" s="7">
-        <f>D69-B69</f>
+        <f t="shared" si="17"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="G69" s="2">
-        <f>E69-C69</f>
+        <f t="shared" si="18"/>
         <v>2.0999999999999943</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000057</v>
+        <f t="shared" si="9"/>
+        <v>2.4698178070456951</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="4"/>
@@ -4456,11 +4456,11 @@
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="6" t="str">
-        <f>LEFT(F13,FIND(";",F13)-1)</f>
+        <f t="shared" si="15"/>
         <v>448,7</v>
       </c>
       <c r="C70" s="6" t="str">
-        <f>MID(F13,FIND(";",F13)+1,LEN(F13)-FIND(";",F13))</f>
+        <f t="shared" si="16"/>
         <v>97,3</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -4470,16 +4470,16 @@
         <v>100</v>
       </c>
       <c r="F70" s="7">
-        <f>D70-B70</f>
+        <f t="shared" si="17"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="G70" s="2">
-        <f>E70-C70</f>
+        <f t="shared" si="18"/>
         <v>2.7000000000000028</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000142</v>
+        <f t="shared" si="9"/>
+        <v>2.9966648127543469</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="4"/>
@@ -4497,11 +4497,11 @@
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="6" t="str">
-        <f>LEFT(F14,FIND(";",F14)-1)</f>
+        <f t="shared" si="15"/>
         <v>498,8</v>
       </c>
       <c r="C71" s="6" t="str">
-        <f>MID(F14,FIND(";",F14)+1,LEN(F14)-FIND(";",F14))</f>
+        <f t="shared" si="16"/>
         <v>97,9</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -4511,16 +4511,16 @@
         <v>100</v>
       </c>
       <c r="F71" s="7">
-        <f>D71-B71</f>
+        <f t="shared" si="17"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="G71" s="2">
-        <f>E71-C71</f>
+        <f t="shared" si="18"/>
         <v>2.0999999999999943</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="1"/>
-        <v>3.2999999999999829</v>
+        <f t="shared" si="9"/>
+        <v>2.4186773244895545</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="4"/>
@@ -4538,11 +4538,11 @@
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="6" t="str">
-        <f>LEFT(F15,FIND(";",F15)-1)</f>
+        <f t="shared" si="15"/>
         <v>550,1</v>
       </c>
       <c r="C72" s="6" t="str">
-        <f>MID(F15,FIND(";",F15)+1,LEN(F15)-FIND(";",F15))</f>
+        <f t="shared" si="16"/>
         <v>97,3</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -4552,21 +4552,21 @@
         <v>100</v>
       </c>
       <c r="F72" s="7">
-        <f>D72-B72</f>
+        <f t="shared" si="17"/>
         <v>-0.10000000000002274</v>
       </c>
       <c r="G72" s="2">
-        <f>E72-C72</f>
+        <f t="shared" si="18"/>
         <v>2.7000000000000028</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000256</v>
+        <f t="shared" si="9"/>
+        <v>2.7018512172212628</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="4">
         <f>AVERAGE(H60:H72)</f>
-        <v>2.6461538461538487</v>
+        <v>1.9929156921877413</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="6"/>
@@ -4604,11 +4604,11 @@
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="6" t="str">
-        <f>LEFT(G3,FIND(";",G3)-1)</f>
+        <f t="shared" ref="B74:B86" si="20">LEFT(G3,FIND(";",G3)-1)</f>
         <v>-48,3</v>
       </c>
       <c r="C74" s="6" t="str">
-        <f>MID(G3,FIND(";",G3)+1,LEN(G3)-FIND(";",G3))</f>
+        <f t="shared" ref="C74:C86" si="21">MID(G3,FIND(";",G3)+1,LEN(G3)-FIND(";",G3))</f>
         <v>150,9</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -4618,16 +4618,16 @@
         <v>150</v>
       </c>
       <c r="F74" s="7">
-        <f>D74-B74</f>
+        <f t="shared" ref="F74:F86" si="22">D74-B74</f>
         <v>-1.7000000000000028</v>
       </c>
       <c r="G74" s="2">
-        <f>E74-C74</f>
+        <f t="shared" ref="G74:G86" si="23">E74-C74</f>
         <v>-0.90000000000000568</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" ref="H74" si="4">ABS(F74)+ABS(G74)</f>
-        <v>2.6000000000000085</v>
+        <f t="shared" ref="H74" si="24">SQRT(ABS(F74)^2+ABS(G74)^2)</f>
+        <v>1.9235384061671397</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="4"/>
@@ -4645,11 +4645,11 @@
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="6" t="str">
-        <f>LEFT(G4,FIND(";",G4)-1)</f>
+        <f t="shared" si="20"/>
         <v>1,3</v>
       </c>
       <c r="C75" s="6" t="str">
-        <f>MID(G4,FIND(";",G4)+1,LEN(G4)-FIND(";",G4))</f>
+        <f t="shared" si="21"/>
         <v>149,2</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -4659,16 +4659,16 @@
         <v>150</v>
       </c>
       <c r="F75" s="7">
-        <f>D75-B75</f>
+        <f t="shared" si="22"/>
         <v>-1.3</v>
       </c>
       <c r="G75" s="2">
-        <f>E75-C75</f>
+        <f t="shared" si="23"/>
         <v>0.80000000000001137</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1000000000000112</v>
+        <f t="shared" si="9"/>
+        <v>1.5264337522473808</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="4"/>
@@ -4686,11 +4686,11 @@
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="6" t="str">
-        <f>LEFT(G5,FIND(";",G5)-1)</f>
+        <f t="shared" si="20"/>
         <v>49,9</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f>MID(G5,FIND(";",G5)+1,LEN(G5)-FIND(";",G5))</f>
+        <f t="shared" si="21"/>
         <v>149,8</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -4700,16 +4700,16 @@
         <v>150</v>
       </c>
       <c r="F76" s="7">
-        <f>D76-B76</f>
+        <f t="shared" si="22"/>
         <v>0.10000000000000142</v>
       </c>
       <c r="G76" s="2">
-        <f>E76-C76</f>
+        <f t="shared" si="23"/>
         <v>0.19999999999998863</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="1"/>
-        <v>0.29999999999999005</v>
+        <f t="shared" si="9"/>
+        <v>0.22360679774996944</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="4"/>
@@ -4727,11 +4727,11 @@
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="6" t="str">
-        <f>LEFT(G6,FIND(";",G6)-1)</f>
+        <f t="shared" si="20"/>
         <v>99,6</v>
       </c>
       <c r="C77" s="6" t="str">
-        <f>MID(G6,FIND(";",G6)+1,LEN(G6)-FIND(";",G6))</f>
+        <f t="shared" si="21"/>
         <v>148,1</v>
       </c>
       <c r="D77" s="6" t="s">
@@ -4741,16 +4741,16 @@
         <v>150</v>
       </c>
       <c r="F77" s="7">
-        <f>D77-B77</f>
+        <f t="shared" si="22"/>
         <v>0.40000000000000568</v>
       </c>
       <c r="G77" s="2">
-        <f>E77-C77</f>
+        <f t="shared" si="23"/>
         <v>1.9000000000000057</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3000000000000114</v>
+        <f t="shared" si="9"/>
+        <v>1.9416487838947667</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="4"/>
@@ -4768,11 +4768,11 @@
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="6" t="str">
-        <f>LEFT(G7,FIND(";",G7)-1)</f>
+        <f t="shared" si="20"/>
         <v>149,4</v>
       </c>
       <c r="C78" s="6" t="str">
-        <f>MID(G7,FIND(";",G7)+1,LEN(G7)-FIND(";",G7))</f>
+        <f t="shared" si="21"/>
         <v>148,7</v>
       </c>
       <c r="D78" s="6" t="s">
@@ -4782,16 +4782,16 @@
         <v>150</v>
       </c>
       <c r="F78" s="7">
-        <f>D78-B78</f>
+        <f t="shared" si="22"/>
         <v>0.59999999999999432</v>
       </c>
       <c r="G78" s="2">
-        <f>E78-C78</f>
+        <f t="shared" si="23"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9000000000000057</v>
+        <f t="shared" si="9"/>
+        <v>1.4317821063276432</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="4"/>
@@ -4809,11 +4809,11 @@
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="6" t="str">
-        <f>LEFT(G8,FIND(";",G8)-1)</f>
+        <f t="shared" si="20"/>
         <v>198,1</v>
       </c>
       <c r="C79" s="6" t="str">
-        <f>MID(G8,FIND(";",G8)+1,LEN(G8)-FIND(";",G8))</f>
+        <f t="shared" si="21"/>
         <v>148,2</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -4823,16 +4823,16 @@
         <v>150</v>
       </c>
       <c r="F79" s="7">
-        <f>D79-B79</f>
+        <f t="shared" si="22"/>
         <v>1.9000000000000057</v>
       </c>
       <c r="G79" s="2">
-        <f>E79-C79</f>
+        <f t="shared" si="23"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="1"/>
-        <v>3.7000000000000171</v>
+        <f t="shared" si="9"/>
+        <v>2.6172504656604922</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="4"/>
@@ -4850,11 +4850,11 @@
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="6" t="str">
-        <f>LEFT(G9,FIND(";",G9)-1)</f>
+        <f t="shared" si="20"/>
         <v>249,1</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f>MID(G9,FIND(";",G9)+1,LEN(G9)-FIND(";",G9))</f>
+        <f t="shared" si="21"/>
         <v>148,7</v>
       </c>
       <c r="D80" s="6" t="s">
@@ -4864,16 +4864,16 @@
         <v>150</v>
       </c>
       <c r="F80" s="7">
-        <f>D80-B80</f>
+        <f t="shared" si="22"/>
         <v>0.90000000000000568</v>
       </c>
       <c r="G80" s="2">
-        <f>E80-C80</f>
+        <f t="shared" si="23"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000171</v>
+        <f t="shared" si="9"/>
+        <v>1.5811388300842022</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="4"/>
@@ -4891,11 +4891,11 @@
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="6" t="str">
-        <f>LEFT(G10,FIND(";",G10)-1)</f>
+        <f t="shared" si="20"/>
         <v>299,0</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f>MID(G10,FIND(";",G10)+1,LEN(G10)-FIND(";",G10))</f>
+        <f t="shared" si="21"/>
         <v>148,2</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -4905,16 +4905,16 @@
         <v>150</v>
       </c>
       <c r="F81" s="7">
-        <f>D81-B81</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G81" s="2">
-        <f>E81-C81</f>
+        <f t="shared" si="23"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000114</v>
+        <f t="shared" si="9"/>
+        <v>2.0591260281974102</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="4"/>
@@ -4932,11 +4932,11 @@
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="6" t="str">
-        <f>LEFT(G11,FIND(";",G11)-1)</f>
+        <f t="shared" si="20"/>
         <v>349,0</v>
       </c>
       <c r="C82" s="6" t="str">
-        <f>MID(G11,FIND(";",G11)+1,LEN(G11)-FIND(";",G11))</f>
+        <f t="shared" si="21"/>
         <v>147,6</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -4946,16 +4946,16 @@
         <v>150</v>
       </c>
       <c r="F82" s="7">
-        <f>D82-B82</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G82" s="2">
-        <f>E82-C82</f>
+        <f t="shared" si="23"/>
         <v>2.4000000000000057</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000057</v>
+        <f t="shared" si="9"/>
+        <v>2.6000000000000054</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="4"/>
@@ -4973,11 +4973,11 @@
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="6" t="str">
-        <f>LEFT(G12,FIND(";",G12)-1)</f>
+        <f t="shared" si="20"/>
         <v>399,0</v>
       </c>
       <c r="C83" s="6" t="str">
-        <f>MID(G12,FIND(";",G12)+1,LEN(G12)-FIND(";",G12))</f>
+        <f t="shared" si="21"/>
         <v>147,0</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -4987,16 +4987,16 @@
         <v>150</v>
       </c>
       <c r="F83" s="7">
-        <f>D83-B83</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G83" s="2">
-        <f>E83-C83</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="4"/>
@@ -5014,11 +5014,11 @@
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="6" t="str">
-        <f>LEFT(G13,FIND(";",G13)-1)</f>
+        <f t="shared" si="20"/>
         <v>449,0</v>
       </c>
       <c r="C84" s="6" t="str">
-        <f>MID(G13,FIND(";",G13)+1,LEN(G13)-FIND(";",G13))</f>
+        <f t="shared" si="21"/>
         <v>147,6</v>
       </c>
       <c r="D84" s="6" t="s">
@@ -5028,16 +5028,16 @@
         <v>150</v>
       </c>
       <c r="F84" s="7">
-        <f>D84-B84</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G84" s="2">
-        <f>E84-C84</f>
+        <f t="shared" si="23"/>
         <v>2.4000000000000057</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000057</v>
+        <f t="shared" si="9"/>
+        <v>2.6000000000000054</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="4"/>
@@ -5055,11 +5055,11 @@
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="6" t="str">
-        <f>LEFT(G14,FIND(";",G14)-1)</f>
+        <f t="shared" si="20"/>
         <v>499,1</v>
       </c>
       <c r="C85" s="6" t="str">
-        <f>MID(G14,FIND(";",G14)+1,LEN(G14)-FIND(";",G14))</f>
+        <f t="shared" si="21"/>
         <v>147,1</v>
       </c>
       <c r="D85" s="6" t="s">
@@ -5069,16 +5069,16 @@
         <v>150</v>
       </c>
       <c r="F85" s="7">
-        <f>D85-B85</f>
+        <f t="shared" si="22"/>
         <v>0.89999999999997726</v>
       </c>
       <c r="G85" s="2">
-        <f>E85-C85</f>
+        <f t="shared" si="23"/>
         <v>2.9000000000000057</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="1"/>
-        <v>3.7999999999999829</v>
+        <f t="shared" si="9"/>
+        <v>3.0364452901377939</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="4"/>
@@ -5096,11 +5096,11 @@
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="6" t="str">
-        <f>LEFT(G15,FIND(";",G15)-1)</f>
+        <f t="shared" si="20"/>
         <v>549,3</v>
       </c>
       <c r="C86" s="6" t="str">
-        <f>MID(G15,FIND(";",G15)+1,LEN(G15)-FIND(";",G15))</f>
+        <f t="shared" si="21"/>
         <v>148,8</v>
       </c>
       <c r="D86" s="6" t="s">
@@ -5110,21 +5110,21 @@
         <v>150</v>
       </c>
       <c r="F86" s="7">
-        <f>D86-B86</f>
+        <f t="shared" si="22"/>
         <v>0.70000000000004547</v>
       </c>
       <c r="G86" s="2">
-        <f>E86-C86</f>
+        <f t="shared" si="23"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9000000000000341</v>
+        <f t="shared" si="9"/>
+        <v>1.3892443989449936</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="4">
         <f>AVERAGE(H74:H86)</f>
-        <v>2.6461538461538541</v>
+        <v>2.0071148091984754</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="6"/>
@@ -5176,16 +5176,16 @@
         <v>200</v>
       </c>
       <c r="F88" s="7">
-        <f>D88-B88</f>
+        <f t="shared" ref="F88:F100" si="25">D88-B88</f>
         <v>-2.1000000000000014</v>
       </c>
       <c r="G88" s="2">
-        <f>E88-C88</f>
+        <f t="shared" ref="G88:G100" si="26">E88-C88</f>
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" ref="H88" si="5">ABS(F88)+ABS(G88)</f>
-        <v>2.1999999999999957</v>
+        <f t="shared" ref="H88" si="27">SQRT(ABS(F88)^2+ABS(G88)^2)</f>
+        <v>2.1023796041628651</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="4"/>
@@ -5217,16 +5217,16 @@
         <v>200</v>
       </c>
       <c r="F89" s="7">
-        <f>D89-B89</f>
+        <f t="shared" si="25"/>
         <v>-1.8</v>
       </c>
       <c r="G89" s="2">
-        <f>E89-C89</f>
+        <f t="shared" si="26"/>
         <v>0.69999999999998863</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4999999999999885</v>
+        <f t="shared" si="9"/>
+        <v>1.9313207915827926</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="4"/>
@@ -5258,16 +5258,16 @@
         <v>200</v>
       </c>
       <c r="F90" s="7">
-        <f>D90-B90</f>
+        <f t="shared" si="25"/>
         <v>-0.29999999999999716</v>
       </c>
       <c r="G90" s="2">
-        <f>E90-C90</f>
+        <f t="shared" si="26"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4999999999999858</v>
+        <f t="shared" si="9"/>
+        <v>1.2369316876852865</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="4"/>
@@ -5299,15 +5299,15 @@
         <v>200</v>
       </c>
       <c r="F91" s="7">
-        <f>D91-B91</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <f>E91-C91</f>
+        <f t="shared" si="26"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="I91" s="2"/>
@@ -5340,16 +5340,16 @@
         <v>200</v>
       </c>
       <c r="F92" s="7">
-        <f>D92-B92</f>
+        <f t="shared" si="25"/>
         <v>0.19999999999998863</v>
       </c>
       <c r="G92" s="2">
-        <f>E92-C92</f>
+        <f t="shared" si="26"/>
         <v>2.3000000000000114</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f t="shared" si="9"/>
+        <v>2.3086792761230495</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="4"/>
@@ -5381,15 +5381,15 @@
         <v>200</v>
       </c>
       <c r="F93" s="7">
-        <f>D93-B93</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G93" s="2">
-        <f>E93-C93</f>
+        <f t="shared" si="26"/>
         <v>2.9000000000000057</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.9000000000000057</v>
       </c>
       <c r="I93" s="2"/>
@@ -5422,16 +5422,16 @@
         <v>200</v>
       </c>
       <c r="F94" s="7">
-        <f>D94-B94</f>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="G94" s="2">
-        <f>E94-C94</f>
+        <f t="shared" si="26"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6999999999999886</v>
+        <f t="shared" si="9"/>
+        <v>1.2999999999999894</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="4"/>
@@ -5463,16 +5463,16 @@
         <v>200</v>
       </c>
       <c r="F95" s="7">
-        <f>D95-B95</f>
+        <f t="shared" si="25"/>
         <v>0.60000000000002274</v>
       </c>
       <c r="G95" s="2">
-        <f>E95-C95</f>
+        <f t="shared" si="26"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4000000000000341</v>
+        <f t="shared" si="9"/>
+        <v>1.8973665961010457</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="4"/>
@@ -5504,16 +5504,16 @@
         <v>200</v>
       </c>
       <c r="F96" s="7">
-        <f>D96-B96</f>
+        <f t="shared" si="25"/>
         <v>0.69999999999998863</v>
       </c>
       <c r="G96" s="2">
-        <f>E96-C96</f>
+        <f t="shared" si="26"/>
         <v>2.1999999999999886</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" ref="H96:H159" si="6">ABS(F96)+ABS(G96)</f>
-        <v>2.8999999999999773</v>
+        <f t="shared" ref="H96:H159" si="28">SQRT(ABS(F96)^2+ABS(G96)^2)</f>
+        <v>2.308679276123025</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="4"/>
@@ -5545,16 +5545,16 @@
         <v>200</v>
       </c>
       <c r="F97" s="7">
-        <f>D97-B97</f>
+        <f t="shared" si="25"/>
         <v>0.69999999999998863</v>
       </c>
       <c r="G97" s="2">
-        <f>E97-C97</f>
+        <f t="shared" si="26"/>
         <v>2.6999999999999886</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="6"/>
-        <v>3.3999999999999773</v>
+        <f t="shared" si="28"/>
+        <v>2.7892651361962568</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="4"/>
@@ -5586,16 +5586,16 @@
         <v>200</v>
       </c>
       <c r="F98" s="7">
-        <f>D98-B98</f>
+        <f t="shared" si="25"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="G98" s="2">
-        <f>E98-C98</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="6"/>
-        <v>3.8000000000000114</v>
+        <f t="shared" si="28"/>
+        <v>2.6907248094147498</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="4"/>
@@ -5627,16 +5627,16 @@
         <v>200</v>
       </c>
       <c r="F99" s="7">
-        <f>D99-B99</f>
+        <f t="shared" si="25"/>
         <v>1.6999999999999886</v>
       </c>
       <c r="G99" s="2">
-        <f>E99-C99</f>
+        <f t="shared" si="26"/>
         <v>2.5999999999999943</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="6"/>
-        <v>4.2999999999999829</v>
+        <f t="shared" si="28"/>
+        <v>3.1064449134018024</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="4"/>
@@ -5668,21 +5668,21 @@
         <v>200</v>
       </c>
       <c r="F100" s="7">
-        <f>D100-B100</f>
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
       <c r="G100" s="2">
-        <f>E100-C100</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="6"/>
-        <v>3.5</v>
+        <f t="shared" si="28"/>
+        <v>2.5</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="4">
         <f>AVERAGE(H88:H100)</f>
-        <v>2.7230769230769201</v>
+        <v>2.2209070839069907</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="6"/>
@@ -5720,11 +5720,11 @@
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="6" t="str">
-        <f>LEFT(I3,FIND(";",I3)-1)</f>
+        <f t="shared" ref="B102:B114" si="29">LEFT(I3,FIND(";",I3)-1)</f>
         <v>-48,6</v>
       </c>
       <c r="C102" s="6" t="str">
-        <f>MID(I3,FIND(";",I3)+1,LEN(I3)-FIND(";",I3))</f>
+        <f t="shared" ref="C102:C114" si="30">MID(I3,FIND(";",I3)+1,LEN(I3)-FIND(";",I3))</f>
         <v>249,9</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -5734,16 +5734,16 @@
         <v>250</v>
       </c>
       <c r="F102" s="7">
-        <f>D102-B102</f>
+        <f t="shared" ref="F102:F114" si="31">D102-B102</f>
         <v>-1.3999999999999986</v>
       </c>
       <c r="G102" s="2">
-        <f>E102-C102</f>
+        <f t="shared" ref="G102:G114" si="32">E102-C102</f>
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" ref="H102" si="7">ABS(F102)+ABS(G102)</f>
-        <v>1.4999999999999929</v>
+        <f t="shared" ref="H102" si="33">SQRT(ABS(F102)^2+ABS(G102)^2)</f>
+        <v>1.4035668847618181</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="4"/>
@@ -5761,11 +5761,11 @@
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="6" t="str">
-        <f>LEFT(I4,FIND(";",I4)-1)</f>
+        <f t="shared" si="29"/>
         <v>1,0</v>
       </c>
       <c r="C103" s="6" t="str">
-        <f>MID(I4,FIND(";",I4)+1,LEN(I4)-FIND(";",I4))</f>
+        <f t="shared" si="30"/>
         <v>248,2</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -5775,16 +5775,16 @@
         <v>250</v>
       </c>
       <c r="F103" s="7">
-        <f>D103-B103</f>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="G103" s="2">
-        <f>E103-C103</f>
+        <f t="shared" si="32"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000114</v>
+        <f t="shared" si="28"/>
+        <v>2.0591260281974102</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="4"/>
@@ -5802,11 +5802,11 @@
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="6" t="str">
-        <f>LEFT(I5,FIND(";",I5)-1)</f>
+        <f t="shared" si="29"/>
         <v>50,7</v>
       </c>
       <c r="C104" s="6" t="str">
-        <f>MID(I5,FIND(";",I5)+1,LEN(I5)-FIND(";",I5))</f>
+        <f t="shared" si="30"/>
         <v>248,8</v>
       </c>
       <c r="D104" s="6" t="s">
@@ -5816,16 +5816,16 @@
         <v>250</v>
       </c>
       <c r="F104" s="7">
-        <f>D104-B104</f>
+        <f t="shared" si="31"/>
         <v>-0.70000000000000284</v>
       </c>
       <c r="G104" s="2">
-        <f>E104-C104</f>
+        <f t="shared" si="32"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="6"/>
-        <v>1.8999999999999915</v>
+        <f t="shared" si="28"/>
+        <v>1.3892443989449721</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="4"/>
@@ -5843,11 +5843,11 @@
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="6" t="str">
-        <f>LEFT(I6,FIND(";",I6)-1)</f>
+        <f t="shared" si="29"/>
         <v>100,5</v>
       </c>
       <c r="C105" s="6" t="str">
-        <f>MID(I6,FIND(";",I6)+1,LEN(I6)-FIND(";",I6))</f>
+        <f t="shared" si="30"/>
         <v>248,3</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -5857,16 +5857,16 @@
         <v>250</v>
       </c>
       <c r="F105" s="7">
-        <f>D105-B105</f>
+        <f t="shared" si="31"/>
         <v>-0.5</v>
       </c>
       <c r="G105" s="2">
-        <f>E105-C105</f>
+        <f t="shared" si="32"/>
         <v>1.6999999999999886</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="6"/>
-        <v>2.1999999999999886</v>
+        <f t="shared" si="28"/>
+        <v>1.7720045146669241</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="4"/>
@@ -5884,11 +5884,11 @@
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="6" t="str">
-        <f>LEFT(I7,FIND(";",I7)-1)</f>
+        <f t="shared" si="29"/>
         <v>150,2</v>
       </c>
       <c r="C106" s="6" t="str">
-        <f>MID(I7,FIND(";",I7)+1,LEN(I7)-FIND(";",I7))</f>
+        <f t="shared" si="30"/>
         <v>247,8</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -5898,16 +5898,16 @@
         <v>250</v>
       </c>
       <c r="F106" s="7">
-        <f>D106-B106</f>
+        <f t="shared" si="31"/>
         <v>-0.19999999999998863</v>
       </c>
       <c r="G106" s="2">
-        <f>E106-C106</f>
+        <f t="shared" si="32"/>
         <v>2.1999999999999886</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="6"/>
-        <v>2.3999999999999773</v>
+        <f t="shared" si="28"/>
+        <v>2.2090722034374397</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="4"/>
@@ -5925,11 +5925,11 @@
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="6" t="str">
-        <f>LEFT(I8,FIND(";",I8)-1)</f>
+        <f t="shared" si="29"/>
         <v>200,0</v>
       </c>
       <c r="C107" s="6" t="str">
-        <f>MID(I8,FIND(";",I8)+1,LEN(I8)-FIND(";",I8))</f>
+        <f t="shared" si="30"/>
         <v>248,4</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -5939,15 +5939,15 @@
         <v>250</v>
       </c>
       <c r="F107" s="7">
-        <f>D107-B107</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G107" s="2">
-        <f>E107-C107</f>
+        <f t="shared" si="32"/>
         <v>1.5999999999999943</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>1.5999999999999943</v>
       </c>
       <c r="I107" s="2"/>
@@ -5966,11 +5966,11 @@
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="6" t="str">
-        <f>LEFT(I9,FIND(";",I9)-1)</f>
+        <f t="shared" si="29"/>
         <v>249,9</v>
       </c>
       <c r="C108" s="6" t="str">
-        <f>MID(I9,FIND(";",I9)+1,LEN(I9)-FIND(";",I9))</f>
+        <f t="shared" si="30"/>
         <v>247,9</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -5980,16 +5980,16 @@
         <v>250</v>
       </c>
       <c r="F108" s="7">
-        <f>D108-B108</f>
+        <f t="shared" si="31"/>
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="G108" s="2">
-        <f>E108-C108</f>
+        <f t="shared" si="32"/>
         <v>2.0999999999999943</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="6"/>
-        <v>2.1999999999999886</v>
+        <f t="shared" si="28"/>
+        <v>2.102379604162858</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="4"/>
@@ -6007,11 +6007,11 @@
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="6" t="str">
-        <f>LEFT(I10,FIND(";",I10)-1)</f>
+        <f t="shared" si="29"/>
         <v>298,6</v>
       </c>
       <c r="C109" s="6" t="str">
-        <f>MID(I10,FIND(";",I10)+1,LEN(I10)-FIND(";",I10))</f>
+        <f t="shared" si="30"/>
         <v>247,4</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -6021,16 +6021,16 @@
         <v>250</v>
       </c>
       <c r="F109" s="7">
-        <f>D109-B109</f>
+        <f t="shared" si="31"/>
         <v>1.3999999999999773</v>
       </c>
       <c r="G109" s="2">
-        <f>E109-C109</f>
+        <f t="shared" si="32"/>
         <v>2.5999999999999943</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="6"/>
-        <v>3.9999999999999716</v>
+        <f t="shared" si="28"/>
+        <v>2.9529646120466642</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="4"/>
@@ -6048,11 +6048,11 @@
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="6" t="str">
-        <f>LEFT(I11,FIND(";",I11)-1)</f>
+        <f t="shared" si="29"/>
         <v>348,5</v>
       </c>
       <c r="C110" s="6" t="str">
-        <f>MID(I11,FIND(";",I11)+1,LEN(I11)-FIND(";",I11))</f>
+        <f t="shared" si="30"/>
         <v>248,0</v>
       </c>
       <c r="D110" s="6" t="s">
@@ -6062,16 +6062,16 @@
         <v>250</v>
       </c>
       <c r="F110" s="7">
-        <f>D110-B110</f>
+        <f t="shared" si="31"/>
         <v>1.5</v>
       </c>
       <c r="G110" s="2">
-        <f>E110-C110</f>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="6"/>
-        <v>3.5</v>
+        <f t="shared" si="28"/>
+        <v>2.5</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="4"/>
@@ -6089,11 +6089,11 @@
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="6" t="str">
-        <f>LEFT(I12,FIND(";",I12)-1)</f>
+        <f t="shared" si="29"/>
         <v>399,7</v>
       </c>
       <c r="C111" s="6" t="str">
-        <f>MID(I12,FIND(";",I12)+1,LEN(I12)-FIND(";",I12))</f>
+        <f t="shared" si="30"/>
         <v>247,5</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -6103,16 +6103,16 @@
         <v>250</v>
       </c>
       <c r="F111" s="7">
-        <f>D111-B111</f>
+        <f t="shared" si="31"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="G111" s="2">
-        <f>E111-C111</f>
+        <f t="shared" si="32"/>
         <v>2.5</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000114</v>
+        <f t="shared" si="28"/>
+        <v>2.5179356624028357</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="4"/>
@@ -6130,11 +6130,11 @@
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="6" t="str">
-        <f>LEFT(I13,FIND(";",I13)-1)</f>
+        <f t="shared" si="29"/>
         <v>449,7</v>
       </c>
       <c r="C112" s="6" t="str">
-        <f>MID(I13,FIND(";",I13)+1,LEN(I13)-FIND(";",I13))</f>
+        <f t="shared" si="30"/>
         <v>248,1</v>
       </c>
       <c r="D112" s="6" t="s">
@@ -6144,16 +6144,16 @@
         <v>250</v>
       </c>
       <c r="F112" s="7">
-        <f>D112-B112</f>
+        <f t="shared" si="31"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="G112" s="2">
-        <f>E112-C112</f>
+        <f t="shared" si="32"/>
         <v>1.9000000000000057</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="6"/>
-        <v>2.2000000000000171</v>
+        <f t="shared" si="28"/>
+        <v>1.9235384061671419</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="4"/>
@@ -6171,11 +6171,11 @@
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="6" t="str">
-        <f>LEFT(I14,FIND(";",I14)-1)</f>
+        <f t="shared" si="29"/>
         <v>499,7</v>
       </c>
       <c r="C113" s="6" t="str">
-        <f>MID(I14,FIND(";",I14)+1,LEN(I14)-FIND(";",I14))</f>
+        <f t="shared" si="30"/>
         <v>247,6</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -6185,16 +6185,16 @@
         <v>250</v>
       </c>
       <c r="F113" s="7">
-        <f>D113-B113</f>
+        <f t="shared" si="31"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="G113" s="2">
-        <f>E113-C113</f>
+        <f t="shared" si="32"/>
         <v>2.4000000000000057</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="6"/>
-        <v>2.7000000000000171</v>
+        <f t="shared" si="28"/>
+        <v>2.4186773244895718</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="4"/>
@@ -6212,11 +6212,11 @@
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="6" t="str">
-        <f>LEFT(I15,FIND(";",I15)-1)</f>
+        <f t="shared" si="29"/>
         <v>549,8</v>
       </c>
       <c r="C114" s="6" t="str">
-        <f>MID(I15,FIND(";",I15)+1,LEN(I15)-FIND(";",I15))</f>
+        <f t="shared" si="30"/>
         <v>247,3</v>
       </c>
       <c r="D114" s="6" t="s">
@@ -6226,21 +6226,21 @@
         <v>250</v>
       </c>
       <c r="F114" s="7">
-        <f>D114-B114</f>
+        <f t="shared" si="31"/>
         <v>0.20000000000004547</v>
       </c>
       <c r="G114" s="2">
-        <f>E114-C114</f>
+        <f t="shared" si="32"/>
         <v>2.6999999999999886</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="6"/>
-        <v>2.9000000000000341</v>
+        <f t="shared" si="28"/>
+        <v>2.7073972741361687</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="4">
         <f>AVERAGE(H102:H114)</f>
-        <v>2.5153846153846149</v>
+        <v>2.119685147185677</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="6"/>
@@ -6278,11 +6278,11 @@
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="6" t="str">
-        <f>LEFT(J3,FIND(";",J3)-1)</f>
+        <f t="shared" ref="B116:B128" si="34">LEFT(J3,FIND(";",J3)-1)</f>
         <v>-48,1</v>
       </c>
       <c r="C116" s="6" t="str">
-        <f>MID(J3,FIND(";",J3)+1,LEN(J3)-FIND(";",J3))</f>
+        <f t="shared" ref="C116:C128" si="35">MID(J3,FIND(";",J3)+1,LEN(J3)-FIND(";",J3))</f>
         <v>299,9</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -6292,16 +6292,16 @@
         <v>300</v>
       </c>
       <c r="F116" s="7">
-        <f>D116-B116</f>
+        <f t="shared" ref="F116:F128" si="36">D116-B116</f>
         <v>-1.8999999999999986</v>
       </c>
       <c r="G116" s="2">
-        <f>E116-C116</f>
+        <f t="shared" ref="G116:G128" si="37">E116-C116</f>
         <v>0.10000000000002274</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" ref="H116" si="8">ABS(F116)+ABS(G116)</f>
-        <v>2.0000000000000213</v>
+        <f t="shared" ref="H116" si="38">SQRT(ABS(F116)^2+ABS(G116)^2)</f>
+        <v>1.9026297590440446</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="4"/>
@@ -6319,11 +6319,11 @@
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="6" t="str">
-        <f>LEFT(J4,FIND(";",J4)-1)</f>
+        <f t="shared" si="34"/>
         <v>1,5</v>
       </c>
       <c r="C117" s="6" t="str">
-        <f>MID(J4,FIND(";",J4)+1,LEN(J4)-FIND(";",J4))</f>
+        <f t="shared" si="35"/>
         <v>299,4</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -6333,16 +6333,16 @@
         <v>300</v>
       </c>
       <c r="F117" s="7">
-        <f>D117-B117</f>
+        <f t="shared" si="36"/>
         <v>-1.5</v>
       </c>
       <c r="G117" s="2">
-        <f>E117-C117</f>
+        <f t="shared" si="37"/>
         <v>0.60000000000002274</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="6"/>
-        <v>2.1000000000000227</v>
+        <f t="shared" si="28"/>
+        <v>1.6155494421403598</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="4"/>
@@ -6360,11 +6360,11 @@
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="6" t="str">
-        <f>LEFT(J5,FIND(";",J5)-1)</f>
+        <f t="shared" si="34"/>
         <v>50,0</v>
       </c>
       <c r="C118" s="6" t="str">
-        <f>MID(J5,FIND(";",J5)+1,LEN(J5)-FIND(";",J5))</f>
+        <f t="shared" si="35"/>
         <v>298,9</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -6374,15 +6374,15 @@
         <v>300</v>
       </c>
       <c r="F118" s="7">
-        <f>D118-B118</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G118" s="2">
-        <f>E118-C118</f>
+        <f t="shared" si="37"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="I118" s="2"/>
@@ -6401,11 +6401,11 @@
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="6" t="str">
-        <f>LEFT(J6,FIND(";",J6)-1)</f>
+        <f t="shared" si="34"/>
         <v>99,7</v>
       </c>
       <c r="C119" s="6" t="str">
-        <f>MID(J6,FIND(";",J6)+1,LEN(J6)-FIND(";",J6))</f>
+        <f t="shared" si="35"/>
         <v>298,4</v>
       </c>
       <c r="D119" s="6" t="s">
@@ -6415,16 +6415,16 @@
         <v>300</v>
       </c>
       <c r="F119" s="7">
-        <f>D119-B119</f>
+        <f t="shared" si="36"/>
         <v>0.29999999999999716</v>
       </c>
       <c r="G119" s="2">
-        <f>E119-C119</f>
+        <f t="shared" si="37"/>
         <v>1.6000000000000227</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="6"/>
-        <v>1.9000000000000199</v>
+        <f t="shared" si="28"/>
+        <v>1.6278820596099923</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="4"/>
@@ -6442,11 +6442,11 @@
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="6" t="str">
-        <f>LEFT(J7,FIND(";",J7)-1)</f>
+        <f t="shared" si="34"/>
         <v>149,5</v>
       </c>
       <c r="C120" s="6" t="str">
-        <f>MID(J7,FIND(";",J7)+1,LEN(J7)-FIND(";",J7))</f>
+        <f t="shared" si="35"/>
         <v>297,9</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -6456,16 +6456,16 @@
         <v>300</v>
       </c>
       <c r="F120" s="7">
-        <f>D120-B120</f>
+        <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
       <c r="G120" s="2">
-        <f>E120-C120</f>
+        <f t="shared" si="37"/>
         <v>2.1000000000000227</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="6"/>
-        <v>2.6000000000000227</v>
+        <f t="shared" si="28"/>
+        <v>2.1587033144923122</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="4"/>
@@ -6483,11 +6483,11 @@
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="6" t="str">
-        <f>LEFT(J8,FIND(";",J8)-1)</f>
+        <f t="shared" si="34"/>
         <v>199,3</v>
       </c>
       <c r="C121" s="6" t="str">
-        <f>MID(J8,FIND(";",J8)+1,LEN(J8)-FIND(";",J8))</f>
+        <f t="shared" si="35"/>
         <v>298,6</v>
       </c>
       <c r="D121" s="6" t="s">
@@ -6497,16 +6497,16 @@
         <v>300</v>
       </c>
       <c r="F121" s="7">
-        <f>D121-B121</f>
+        <f t="shared" si="36"/>
         <v>0.69999999999998863</v>
       </c>
       <c r="G121" s="2">
-        <f>E121-C121</f>
+        <f t="shared" si="37"/>
         <v>1.3999999999999773</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="6"/>
-        <v>2.0999999999999659</v>
+        <f t="shared" si="28"/>
+        <v>1.5652475842498272</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="4"/>
@@ -6524,11 +6524,11 @@
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="6" t="str">
-        <f>LEFT(J9,FIND(";",J9)-1)</f>
+        <f t="shared" si="34"/>
         <v>249,1</v>
       </c>
       <c r="C122" s="6" t="str">
-        <f>MID(J9,FIND(";",J9)+1,LEN(J9)-FIND(";",J9))</f>
+        <f t="shared" si="35"/>
         <v>298,1</v>
       </c>
       <c r="D122" s="6" t="s">
@@ -6538,16 +6538,16 @@
         <v>300</v>
       </c>
       <c r="F122" s="7">
-        <f>D122-B122</f>
+        <f t="shared" si="36"/>
         <v>0.90000000000000568</v>
       </c>
       <c r="G122" s="2">
-        <f>E122-C122</f>
+        <f t="shared" si="37"/>
         <v>1.8999999999999773</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="6"/>
-        <v>2.7999999999999829</v>
+        <f t="shared" si="28"/>
+        <v>2.1023796041628455</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="4"/>
@@ -6565,11 +6565,11 @@
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="6" t="str">
-        <f>LEFT(J10,FIND(";",J10)-1)</f>
+        <f t="shared" si="34"/>
         <v>299,0</v>
       </c>
       <c r="C123" s="6" t="str">
-        <f>MID(J10,FIND(";",J10)+1,LEN(J10)-FIND(";",J10))</f>
+        <f t="shared" si="35"/>
         <v>297,6</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -6579,16 +6579,16 @@
         <v>300</v>
       </c>
       <c r="F123" s="7">
-        <f>D123-B123</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="G123" s="2">
-        <f>E123-C123</f>
+        <f t="shared" si="37"/>
         <v>2.3999999999999773</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="6"/>
-        <v>3.3999999999999773</v>
+        <f t="shared" si="28"/>
+        <v>2.5999999999999788</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="4"/>
@@ -6606,11 +6606,11 @@
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="6" t="str">
-        <f>LEFT(J11,FIND(";",J11)-1)</f>
+        <f t="shared" si="34"/>
         <v>348,9</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f>MID(J11,FIND(";",J11)+1,LEN(J11)-FIND(";",J11))</f>
+        <f t="shared" si="35"/>
         <v>297,0</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -6620,16 +6620,16 @@
         <v>300</v>
       </c>
       <c r="F124" s="7">
-        <f>D124-B124</f>
+        <f t="shared" si="36"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="G124" s="2">
-        <f>E124-C124</f>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="6"/>
-        <v>4.1000000000000227</v>
+        <f t="shared" si="28"/>
+        <v>3.1953090617340996</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="4"/>
@@ -6647,11 +6647,11 @@
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="6" t="str">
-        <f>LEFT(J12,FIND(";",J12)-1)</f>
+        <f t="shared" si="34"/>
         <v>400,0</v>
       </c>
       <c r="C125" s="6" t="str">
-        <f>MID(J12,FIND(";",J12)+1,LEN(J12)-FIND(";",J12))</f>
+        <f t="shared" si="35"/>
         <v>298,9</v>
       </c>
       <c r="D125" s="6" t="s">
@@ -6661,15 +6661,15 @@
         <v>300</v>
       </c>
       <c r="F125" s="7">
-        <f>D125-B125</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G125" s="2">
-        <f>E125-C125</f>
+        <f t="shared" si="37"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="I125" s="2"/>
@@ -6688,11 +6688,11 @@
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="6" t="str">
-        <f>LEFT(J13,FIND(";",J13)-1)</f>
+        <f t="shared" si="34"/>
         <v>450,0</v>
       </c>
       <c r="C126" s="6" t="str">
-        <f>MID(J13,FIND(";",J13)+1,LEN(J13)-FIND(";",J13))</f>
+        <f t="shared" si="35"/>
         <v>298,4</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -6702,15 +6702,15 @@
         <v>300</v>
       </c>
       <c r="F126" s="7">
-        <f>D126-B126</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G126" s="2">
-        <f>E126-C126</f>
+        <f t="shared" si="37"/>
         <v>1.6000000000000227</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>1.6000000000000227</v>
       </c>
       <c r="I126" s="2"/>
@@ -6729,11 +6729,11 @@
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="6" t="str">
-        <f>LEFT(J14,FIND(";",J14)-1)</f>
+        <f t="shared" si="34"/>
         <v>500,1</v>
       </c>
       <c r="C127" s="6" t="str">
-        <f>MID(J14,FIND(";",J14)+1,LEN(J14)-FIND(";",J14))</f>
+        <f t="shared" si="35"/>
         <v>297,9</v>
       </c>
       <c r="D127" s="6" t="s">
@@ -6743,16 +6743,16 @@
         <v>300</v>
       </c>
       <c r="F127" s="7">
-        <f>D127-B127</f>
+        <f t="shared" si="36"/>
         <v>-0.10000000000002274</v>
       </c>
       <c r="G127" s="2">
-        <f>E127-C127</f>
+        <f t="shared" si="37"/>
         <v>2.1000000000000227</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="6"/>
-        <v>2.2000000000000455</v>
+        <f t="shared" si="28"/>
+        <v>2.1023796041628873</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="4"/>
@@ -6770,11 +6770,11 @@
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="6" t="str">
-        <f>LEFT(J15,FIND(";",J15)-1)</f>
+        <f t="shared" si="34"/>
         <v>549,0</v>
       </c>
       <c r="C128" s="6" t="str">
-        <f>MID(J15,FIND(";",J15)+1,LEN(J15)-FIND(";",J15))</f>
+        <f t="shared" si="35"/>
         <v>298,5</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -6784,21 +6784,21 @@
         <v>300</v>
       </c>
       <c r="F128" s="7">
-        <f>D128-B128</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="G128" s="2">
-        <f>E128-C128</f>
+        <f t="shared" si="37"/>
         <v>1.5</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
+        <f t="shared" si="28"/>
+        <v>1.8027756377319946</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="4">
         <f>AVERAGE(H116:H128)</f>
-        <v>2.2692307692307807</v>
+        <v>1.882527389794493</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="6"/>
@@ -6836,11 +6836,11 @@
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="6" t="str">
-        <f>LEFT(K3,FIND(";",K3)-1)</f>
+        <f t="shared" ref="B130:B142" si="39">LEFT(K3,FIND(";",K3)-1)</f>
         <v>-48,8</v>
       </c>
       <c r="C130" s="6" t="str">
-        <f>MID(K3,FIND(";",K3)+1,LEN(K3)-FIND(";",K3))</f>
+        <f t="shared" ref="C130:C142" si="40">MID(K3,FIND(";",K3)+1,LEN(K3)-FIND(";",K3))</f>
         <v>349,8</v>
       </c>
       <c r="D130" s="6" t="s">
@@ -6850,16 +6850,16 @@
         <v>350</v>
       </c>
       <c r="F130" s="7">
-        <f>D130-B130</f>
+        <f t="shared" ref="F130:F142" si="41">D130-B130</f>
         <v>-1.2000000000000028</v>
       </c>
       <c r="G130" s="2">
-        <f>E130-C130</f>
+        <f t="shared" ref="G130:G142" si="42">E130-C130</f>
         <v>0.19999999999998863</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" ref="H130" si="9">ABS(F130)+ABS(G130)</f>
-        <v>1.3999999999999915</v>
+        <f t="shared" ref="H130" si="43">SQRT(ABS(F130)^2+ABS(G130)^2)</f>
+        <v>1.2165525060596449</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="4"/>
@@ -6877,11 +6877,11 @@
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="6" t="str">
-        <f>LEFT(K4,FIND(";",K4)-1)</f>
+        <f t="shared" si="39"/>
         <v>0,8</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f>MID(K4,FIND(";",K4)+1,LEN(K4)-FIND(";",K4))</f>
+        <f t="shared" si="40"/>
         <v>349,4</v>
       </c>
       <c r="D131" s="6" t="s">
@@ -6891,16 +6891,16 @@
         <v>350</v>
       </c>
       <c r="F131" s="7">
-        <f>D131-B131</f>
+        <f t="shared" si="41"/>
         <v>-0.8</v>
       </c>
       <c r="G131" s="2">
-        <f>E131-C131</f>
+        <f t="shared" si="42"/>
         <v>0.60000000000002274</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="6"/>
-        <v>1.4000000000000228</v>
+        <f t="shared" si="28"/>
+        <v>1.0000000000000138</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="4"/>
@@ -6918,11 +6918,11 @@
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="6" t="str">
-        <f>LEFT(K5,FIND(";",K5)-1)</f>
+        <f t="shared" si="39"/>
         <v>50,4</v>
       </c>
       <c r="C132" s="6" t="str">
-        <f>MID(K5,FIND(";",K5)+1,LEN(K5)-FIND(";",K5))</f>
+        <f t="shared" si="40"/>
         <v>348,9</v>
       </c>
       <c r="D132" s="6" t="s">
@@ -6932,16 +6932,16 @@
         <v>350</v>
       </c>
       <c r="F132" s="7">
-        <f>D132-B132</f>
+        <f t="shared" si="41"/>
         <v>-0.39999999999999858</v>
       </c>
       <c r="G132" s="2">
-        <f>E132-C132</f>
+        <f t="shared" si="42"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="6"/>
-        <v>1.5000000000000213</v>
+        <f t="shared" si="28"/>
+        <v>1.1704699910719834</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="4"/>
@@ -6959,11 +6959,11 @@
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="6" t="str">
-        <f>LEFT(K6,FIND(";",K6)-1)</f>
+        <f t="shared" si="39"/>
         <v>99,0</v>
       </c>
       <c r="C133" s="6" t="str">
-        <f>MID(K6,FIND(";",K6)+1,LEN(K6)-FIND(";",K6))</f>
+        <f t="shared" si="40"/>
         <v>348,5</v>
       </c>
       <c r="D133" s="6" t="s">
@@ -6973,16 +6973,16 @@
         <v>350</v>
       </c>
       <c r="F133" s="7">
-        <f>D133-B133</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="G133" s="2">
-        <f>E133-C133</f>
+        <f t="shared" si="42"/>
         <v>1.5</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
+        <f t="shared" si="28"/>
+        <v>1.8027756377319946</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="4"/>
@@ -7000,11 +7000,11 @@
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="6" t="str">
-        <f>LEFT(K7,FIND(";",K7)-1)</f>
+        <f t="shared" si="39"/>
         <v>149,9</v>
       </c>
       <c r="C134" s="6" t="str">
-        <f>MID(K7,FIND(";",K7)+1,LEN(K7)-FIND(";",K7))</f>
+        <f t="shared" si="40"/>
         <v>348,0</v>
       </c>
       <c r="D134" s="6" t="s">
@@ -7014,16 +7014,16 @@
         <v>350</v>
       </c>
       <c r="F134" s="7">
-        <f>D134-B134</f>
+        <f t="shared" si="41"/>
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="G134" s="2">
-        <f>E134-C134</f>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="6"/>
-        <v>2.0999999999999943</v>
+        <f t="shared" si="28"/>
+        <v>2.0024984394500782</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="4"/>
@@ -7041,11 +7041,11 @@
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="6" t="str">
-        <f>LEFT(K8,FIND(";",K8)-1)</f>
+        <f t="shared" si="39"/>
         <v>200,8</v>
       </c>
       <c r="C135" s="6" t="str">
-        <f>MID(K8,FIND(";",K8)+1,LEN(K8)-FIND(";",K8))</f>
+        <f t="shared" si="40"/>
         <v>346,3</v>
       </c>
       <c r="D135" s="6" t="s">
@@ -7055,16 +7055,16 @@
         <v>350</v>
       </c>
       <c r="F135" s="7">
-        <f>D135-B135</f>
+        <f t="shared" si="41"/>
         <v>-0.80000000000001137</v>
       </c>
       <c r="G135" s="2">
-        <f>E135-C135</f>
+        <f t="shared" si="42"/>
         <v>3.6999999999999886</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="6"/>
-        <v>4.5</v>
+        <f t="shared" si="28"/>
+        <v>3.7854986461495312</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="4"/>
@@ -7082,11 +7082,11 @@
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="6" t="str">
-        <f>LEFT(K9,FIND(";",K9)-1)</f>
+        <f t="shared" si="39"/>
         <v>249,5</v>
       </c>
       <c r="C136" s="6" t="str">
-        <f>MID(K9,FIND(";",K9)+1,LEN(K9)-FIND(";",K9))</f>
+        <f t="shared" si="40"/>
         <v>348,2</v>
       </c>
       <c r="D136" s="6" t="s">
@@ -7096,16 +7096,16 @@
         <v>350</v>
       </c>
       <c r="F136" s="7">
-        <f>D136-B136</f>
+        <f t="shared" si="41"/>
         <v>0.5</v>
       </c>
       <c r="G136" s="2">
-        <f>E136-C136</f>
+        <f t="shared" si="42"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="6"/>
-        <v>2.3000000000000114</v>
+        <f t="shared" si="28"/>
+        <v>1.8681541692269514</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="4"/>
@@ -7123,11 +7123,11 @@
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="6" t="str">
-        <f>LEFT(K10,FIND(";",K10)-1)</f>
+        <f t="shared" si="39"/>
         <v>300,5</v>
       </c>
       <c r="C137" s="6" t="str">
-        <f>MID(K10,FIND(";",K10)+1,LEN(K10)-FIND(";",K10))</f>
+        <f t="shared" si="40"/>
         <v>347,7</v>
       </c>
       <c r="D137" s="6" t="s">
@@ -7137,16 +7137,16 @@
         <v>350</v>
       </c>
       <c r="F137" s="7">
-        <f>D137-B137</f>
+        <f t="shared" si="41"/>
         <v>-0.5</v>
       </c>
       <c r="G137" s="2">
-        <f>E137-C137</f>
+        <f t="shared" si="42"/>
         <v>2.3000000000000114</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000114</v>
+        <f t="shared" si="28"/>
+        <v>2.3537204591879752</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="4"/>
@@ -7164,11 +7164,11 @@
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6" t="str">
-        <f>LEFT(K11,FIND(";",K11)-1)</f>
+        <f t="shared" si="39"/>
         <v>350,4</v>
       </c>
       <c r="C138" s="6" t="str">
-        <f>MID(K11,FIND(";",K11)+1,LEN(K11)-FIND(";",K11))</f>
+        <f t="shared" si="40"/>
         <v>348,3</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -7178,16 +7178,16 @@
         <v>350</v>
       </c>
       <c r="F138" s="7">
-        <f>D138-B138</f>
+        <f t="shared" si="41"/>
         <v>-0.39999999999997726</v>
       </c>
       <c r="G138" s="2">
-        <f>E138-C138</f>
+        <f t="shared" si="42"/>
         <v>1.6999999999999886</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="6"/>
-        <v>2.0999999999999659</v>
+        <f t="shared" si="28"/>
+        <v>1.7464249196572819</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="4"/>
@@ -7205,11 +7205,11 @@
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="6" t="str">
-        <f>LEFT(K12,FIND(";",K12)-1)</f>
+        <f t="shared" si="39"/>
         <v>400,4</v>
       </c>
       <c r="C139" s="6" t="str">
-        <f>MID(K12,FIND(";",K12)+1,LEN(K12)-FIND(";",K12))</f>
+        <f t="shared" si="40"/>
         <v>349,0</v>
       </c>
       <c r="D139" s="6" t="s">
@@ -7219,16 +7219,16 @@
         <v>350</v>
       </c>
       <c r="F139" s="7">
-        <f>D139-B139</f>
+        <f t="shared" si="41"/>
         <v>-0.39999999999997726</v>
       </c>
       <c r="G139" s="2">
-        <f>E139-C139</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="6"/>
-        <v>1.3999999999999773</v>
+        <f t="shared" si="28"/>
+        <v>1.0770329614268923</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="4"/>
@@ -7246,11 +7246,11 @@
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="6" t="str">
-        <f>LEFT(K13,FIND(";",K13)-1)</f>
+        <f t="shared" si="39"/>
         <v>450,3</v>
       </c>
       <c r="C140" s="6" t="str">
-        <f>MID(K13,FIND(";",K13)+1,LEN(K13)-FIND(";",K13))</f>
+        <f t="shared" si="40"/>
         <v>348,5</v>
       </c>
       <c r="D140" s="6" t="s">
@@ -7260,16 +7260,16 @@
         <v>350</v>
       </c>
       <c r="F140" s="7">
-        <f>D140-B140</f>
+        <f t="shared" si="41"/>
         <v>-0.30000000000001137</v>
       </c>
       <c r="G140" s="2">
-        <f>E140-C140</f>
+        <f t="shared" si="42"/>
         <v>1.5</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="6"/>
-        <v>1.8000000000000114</v>
+        <f t="shared" si="28"/>
+        <v>1.5297058540778377</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="4"/>
@@ -7287,11 +7287,11 @@
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="6" t="str">
-        <f>LEFT(K14,FIND(";",K14)-1)</f>
+        <f t="shared" si="39"/>
         <v>500,4</v>
       </c>
       <c r="C141" s="6" t="str">
-        <f>MID(K14,FIND(";",K14)+1,LEN(K14)-FIND(";",K14))</f>
+        <f t="shared" si="40"/>
         <v>348,1</v>
       </c>
       <c r="D141" s="6" t="s">
@@ -7301,16 +7301,16 @@
         <v>350</v>
       </c>
       <c r="F141" s="7">
-        <f>D141-B141</f>
+        <f t="shared" si="41"/>
         <v>-0.39999999999997726</v>
       </c>
       <c r="G141" s="2">
-        <f>E141-C141</f>
+        <f t="shared" si="42"/>
         <v>1.8999999999999773</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="6"/>
-        <v>2.2999999999999545</v>
+        <f t="shared" si="28"/>
+        <v>1.9416487838947329</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="4"/>
@@ -7328,11 +7328,11 @@
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="6" t="str">
-        <f>LEFT(K15,FIND(";",K15)-1)</f>
+        <f t="shared" si="39"/>
         <v>550,4</v>
       </c>
       <c r="C142" s="6" t="str">
-        <f>MID(K15,FIND(";",K15)+1,LEN(K15)-FIND(";",K15))</f>
+        <f t="shared" si="40"/>
         <v>348,7</v>
       </c>
       <c r="D142" s="6" t="s">
@@ -7342,21 +7342,21 @@
         <v>350</v>
       </c>
       <c r="F142" s="7">
-        <f>D142-B142</f>
+        <f t="shared" si="41"/>
         <v>-0.39999999999997726</v>
       </c>
       <c r="G142" s="2">
-        <f>E142-C142</f>
+        <f t="shared" si="42"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6999999999999886</v>
+        <f t="shared" si="28"/>
+        <v>1.3601470508735485</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="4">
         <f>AVERAGE(H130:H142)</f>
-        <v>2.1384615384615349</v>
+        <v>1.758048416831421</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="6"/>
@@ -7394,11 +7394,11 @@
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="6" t="str">
-        <f>LEFT(L3,FIND(";",L3)-1)</f>
+        <f t="shared" ref="B144:B156" si="44">LEFT(L3,FIND(";",L3)-1)</f>
         <v>-48,4</v>
       </c>
       <c r="C144" s="6" t="str">
-        <f>MID(L3,FIND(";",L3)+1,LEN(L3)-FIND(";",L3))</f>
+        <f t="shared" ref="C144:C156" si="45">MID(L3,FIND(";",L3)+1,LEN(L3)-FIND(";",L3))</f>
         <v>399,8</v>
       </c>
       <c r="D144" s="6" t="s">
@@ -7408,16 +7408,16 @@
         <v>400</v>
       </c>
       <c r="F144" s="7">
-        <f>D144-B144</f>
+        <f t="shared" ref="F144:F156" si="46">D144-B144</f>
         <v>-1.6000000000000014</v>
       </c>
       <c r="G144" s="2">
-        <f>E144-C144</f>
+        <f t="shared" ref="G144:G156" si="47">E144-C144</f>
         <v>0.19999999999998863</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" ref="H144" si="10">ABS(F144)+ABS(G144)</f>
-        <v>1.7999999999999901</v>
+        <f t="shared" ref="H144" si="48">SQRT(ABS(F144)^2+ABS(G144)^2)</f>
+        <v>1.61245154965971</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="4"/>
@@ -7435,11 +7435,11 @@
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="6" t="str">
-        <f>LEFT(L4,FIND(";",L4)-1)</f>
+        <f t="shared" si="44"/>
         <v>1,2</v>
       </c>
       <c r="C145" s="6" t="str">
-        <f>MID(L4,FIND(";",L4)+1,LEN(L4)-FIND(";",L4))</f>
+        <f t="shared" si="45"/>
         <v>399,4</v>
       </c>
       <c r="D145" s="6" t="s">
@@ -7449,16 +7449,16 @@
         <v>400</v>
       </c>
       <c r="F145" s="7">
-        <f>D145-B145</f>
+        <f t="shared" si="46"/>
         <v>-1.2</v>
       </c>
       <c r="G145" s="2">
-        <f>E145-C145</f>
+        <f t="shared" si="47"/>
         <v>0.60000000000002274</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="6"/>
-        <v>1.8000000000000227</v>
+        <f t="shared" si="28"/>
+        <v>1.3416407864998841</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="4"/>
@@ -7476,11 +7476,11 @@
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="6" t="str">
-        <f>LEFT(L5,FIND(";",L5)-1)</f>
+        <f t="shared" si="44"/>
         <v>50,9</v>
       </c>
       <c r="C146" s="6" t="str">
-        <f>MID(L5,FIND(";",L5)+1,LEN(L5)-FIND(";",L5))</f>
+        <f t="shared" si="45"/>
         <v>398,9</v>
       </c>
       <c r="D146" s="6" t="s">
@@ -7490,16 +7490,16 @@
         <v>400</v>
       </c>
       <c r="F146" s="7">
-        <f>D146-B146</f>
+        <f t="shared" si="46"/>
         <v>-0.89999999999999858</v>
       </c>
       <c r="G146" s="2">
-        <f>E146-C146</f>
+        <f t="shared" si="47"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="6"/>
-        <v>2.0000000000000213</v>
+        <f t="shared" si="28"/>
+        <v>1.4212670403552063</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="4"/>
@@ -7517,11 +7517,11 @@
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="6" t="str">
-        <f>LEFT(L6,FIND(";",L6)-1)</f>
+        <f t="shared" si="44"/>
         <v>100,5</v>
       </c>
       <c r="C147" s="6" t="str">
-        <f>MID(L6,FIND(";",L6)+1,LEN(L6)-FIND(";",L6))</f>
+        <f t="shared" si="45"/>
         <v>398,5</v>
       </c>
       <c r="D147" s="6" t="s">
@@ -7531,16 +7531,16 @@
         <v>400</v>
       </c>
       <c r="F147" s="7">
-        <f>D147-B147</f>
+        <f t="shared" si="46"/>
         <v>-0.5</v>
       </c>
       <c r="G147" s="2">
-        <f>E147-C147</f>
+        <f t="shared" si="47"/>
         <v>1.5</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>1.5811388300841898</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="4"/>
@@ -7558,11 +7558,11 @@
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="6" t="str">
-        <f>LEFT(L7,FIND(";",L7)-1)</f>
+        <f t="shared" si="44"/>
         <v>150,3</v>
       </c>
       <c r="C148" s="6" t="str">
-        <f>MID(L7,FIND(";",L7)+1,LEN(L7)-FIND(";",L7))</f>
+        <f t="shared" si="45"/>
         <v>398,0</v>
       </c>
       <c r="D148" s="6" t="s">
@@ -7572,16 +7572,16 @@
         <v>400</v>
       </c>
       <c r="F148" s="7">
-        <f>D148-B148</f>
+        <f t="shared" si="46"/>
         <v>-0.30000000000001137</v>
       </c>
       <c r="G148" s="2">
-        <f>E148-C148</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="6"/>
-        <v>2.3000000000000114</v>
+        <f t="shared" si="28"/>
+        <v>2.0223748416156702</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="4"/>
@@ -7599,11 +7599,11 @@
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="6" t="str">
-        <f>LEFT(L8,FIND(";",L8)-1)</f>
+        <f t="shared" si="44"/>
         <v>200,0</v>
       </c>
       <c r="C149" s="6" t="str">
-        <f>MID(L8,FIND(";",L8)+1,LEN(L8)-FIND(";",L8))</f>
+        <f t="shared" si="45"/>
         <v>398,7</v>
       </c>
       <c r="D149" s="6" t="s">
@@ -7613,15 +7613,15 @@
         <v>400</v>
       </c>
       <c r="F149" s="7">
-        <f>D149-B149</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G149" s="2">
-        <f>E149-C149</f>
+        <f t="shared" si="47"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="I149" s="2"/>
@@ -7640,11 +7640,11 @@
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="6" t="str">
-        <f>LEFT(L9,FIND(";",L9)-1)</f>
+        <f t="shared" si="44"/>
         <v>249,8</v>
       </c>
       <c r="C150" s="6" t="str">
-        <f>MID(L9,FIND(";",L9)+1,LEN(L9)-FIND(";",L9))</f>
+        <f t="shared" si="45"/>
         <v>398,2</v>
       </c>
       <c r="D150" s="6" t="s">
@@ -7654,16 +7654,16 @@
         <v>400</v>
       </c>
       <c r="F150" s="7">
-        <f>D150-B150</f>
+        <f t="shared" si="46"/>
         <v>0.19999999999998863</v>
       </c>
       <c r="G150" s="2">
-        <f>E150-C150</f>
+        <f t="shared" si="47"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>1.8110770276274935</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="4"/>
@@ -7681,11 +7681,11 @@
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="6" t="str">
-        <f>LEFT(L10,FIND(";",L10)-1)</f>
+        <f t="shared" si="44"/>
         <v>299,7</v>
       </c>
       <c r="C151" s="6" t="str">
-        <f>MID(L10,FIND(";",L10)+1,LEN(L10)-FIND(";",L10))</f>
+        <f t="shared" si="45"/>
         <v>398,9</v>
       </c>
       <c r="D151" s="6" t="s">
@@ -7695,16 +7695,16 @@
         <v>400</v>
       </c>
       <c r="F151" s="7">
-        <f>D151-B151</f>
+        <f t="shared" si="46"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="G151" s="2">
-        <f>E151-C151</f>
+        <f t="shared" si="47"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="6"/>
-        <v>1.4000000000000341</v>
+        <f t="shared" si="28"/>
+        <v>1.1401754250991629</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="4"/>
@@ -7722,11 +7722,11 @@
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="6" t="str">
-        <f>LEFT(L11,FIND(";",L11)-1)</f>
+        <f t="shared" si="44"/>
         <v>350,8</v>
       </c>
       <c r="C152" s="6" t="str">
-        <f>MID(L11,FIND(";",L11)+1,LEN(L11)-FIND(";",L11))</f>
+        <f t="shared" si="45"/>
         <v>398,5</v>
       </c>
       <c r="D152" s="6" t="s">
@@ -7736,16 +7736,16 @@
         <v>400</v>
       </c>
       <c r="F152" s="7">
-        <f>D152-B152</f>
+        <f t="shared" si="46"/>
         <v>-0.80000000000001137</v>
       </c>
       <c r="G152" s="2">
-        <f>E152-C152</f>
+        <f t="shared" si="47"/>
         <v>1.5</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="6"/>
-        <v>2.3000000000000114</v>
+        <f t="shared" si="28"/>
+        <v>1.7000000000000053</v>
       </c>
       <c r="I152" s="2"/>
       <c r="J152" s="4"/>
@@ -7763,11 +7763,11 @@
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="6" t="str">
-        <f>LEFT(L12,FIND(";",L12)-1)</f>
+        <f t="shared" si="44"/>
         <v>400,7</v>
       </c>
       <c r="C153" s="6" t="str">
-        <f>MID(L12,FIND(";",L12)+1,LEN(L12)-FIND(";",L12))</f>
+        <f t="shared" si="45"/>
         <v>398,0</v>
       </c>
       <c r="D153" s="6" t="s">
@@ -7777,16 +7777,16 @@
         <v>400</v>
       </c>
       <c r="F153" s="7">
-        <f>D153-B153</f>
+        <f t="shared" si="46"/>
         <v>-0.69999999999998863</v>
       </c>
       <c r="G153" s="2">
-        <f>E153-C153</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="6"/>
-        <v>2.6999999999999886</v>
+        <f t="shared" si="28"/>
+        <v>2.1189620100417055</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="4"/>
@@ -7804,11 +7804,11 @@
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="6" t="str">
-        <f>LEFT(L13,FIND(";",L13)-1)</f>
+        <f t="shared" si="44"/>
         <v>450,7</v>
       </c>
       <c r="C154" s="6" t="str">
-        <f>MID(L13,FIND(";",L13)+1,LEN(L13)-FIND(";",L13))</f>
+        <f t="shared" si="45"/>
         <v>398,7</v>
       </c>
       <c r="D154" s="6" t="s">
@@ -7818,16 +7818,16 @@
         <v>400</v>
       </c>
       <c r="F154" s="7">
-        <f>D154-B154</f>
+        <f t="shared" si="46"/>
         <v>-0.69999999999998863</v>
       </c>
       <c r="G154" s="2">
-        <f>E154-C154</f>
+        <f t="shared" si="47"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="H154" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>1.4764823060233445</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="4"/>
@@ -7845,11 +7845,11 @@
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="6" t="str">
-        <f>LEFT(L14,FIND(";",L14)-1)</f>
+        <f t="shared" si="44"/>
         <v>500,7</v>
       </c>
       <c r="C155" s="6" t="str">
-        <f>MID(L14,FIND(";",L14)+1,LEN(L14)-FIND(";",L14))</f>
+        <f t="shared" si="45"/>
         <v>398,2</v>
       </c>
       <c r="D155" s="6" t="s">
@@ -7859,16 +7859,16 @@
         <v>400</v>
       </c>
       <c r="F155" s="7">
-        <f>D155-B155</f>
+        <f t="shared" si="46"/>
         <v>-0.69999999999998863</v>
       </c>
       <c r="G155" s="2">
-        <f>E155-C155</f>
+        <f t="shared" si="47"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="H155" s="2">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
+        <f t="shared" si="28"/>
+        <v>1.9313207915828032</v>
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="4"/>
@@ -7886,11 +7886,11 @@
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="6" t="str">
-        <f>LEFT(L15,FIND(";",L15)-1)</f>
+        <f t="shared" si="44"/>
         <v>549,6</v>
       </c>
       <c r="C156" s="6" t="str">
-        <f>MID(L15,FIND(";",L15)+1,LEN(L15)-FIND(";",L15))</f>
+        <f t="shared" si="45"/>
         <v>398,9</v>
       </c>
       <c r="D156" s="6" t="s">
@@ -7900,21 +7900,21 @@
         <v>400</v>
       </c>
       <c r="F156" s="7">
-        <f>D156-B156</f>
+        <f t="shared" si="46"/>
         <v>0.39999999999997726</v>
       </c>
       <c r="G156" s="2">
-        <f>E156-C156</f>
+        <f t="shared" si="47"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="H156" s="2">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>1.170469991071976</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="4">
         <f>AVERAGE(H144:H156)</f>
-        <v>1.9692307692307762</v>
+        <v>1.5867200461277817</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="6"/>
@@ -7952,11 +7952,11 @@
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="6" t="str">
-        <f>LEFT(M3,FIND(";",M3)-1)</f>
+        <f t="shared" ref="B158:B170" si="49">LEFT(M3,FIND(";",M3)-1)</f>
         <v>-47,9</v>
       </c>
       <c r="C158" s="6" t="str">
-        <f>MID(M3,FIND(";",M3)+1,LEN(M3)-FIND(";",M3))</f>
+        <f t="shared" ref="C158:C170" si="50">MID(M3,FIND(";",M3)+1,LEN(M3)-FIND(";",M3))</f>
         <v>449,8</v>
       </c>
       <c r="D158" s="6" t="s">
@@ -7966,16 +7966,16 @@
         <v>450</v>
       </c>
       <c r="F158" s="7">
-        <f>D158-B158</f>
+        <f t="shared" ref="F158:F170" si="51">D158-B158</f>
         <v>-2.1000000000000014</v>
       </c>
       <c r="G158" s="2">
-        <f>E158-C158</f>
+        <f t="shared" ref="G158:G170" si="52">E158-C158</f>
         <v>0.19999999999998863</v>
       </c>
       <c r="H158" s="2">
-        <f t="shared" ref="H158" si="11">ABS(F158)+ABS(G158)</f>
-        <v>2.2999999999999901</v>
+        <f t="shared" ref="H158" si="53">SQRT(ABS(F158)^2+ABS(G158)^2)</f>
+        <v>2.109502310972899</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="4"/>
@@ -7993,11 +7993,11 @@
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="6" t="str">
-        <f>LEFT(M4,FIND(";",M4)-1)</f>
+        <f t="shared" si="49"/>
         <v>1,7</v>
       </c>
       <c r="C159" s="6" t="str">
-        <f>MID(M4,FIND(";",M4)+1,LEN(M4)-FIND(";",M4))</f>
+        <f t="shared" si="50"/>
         <v>449,7</v>
       </c>
       <c r="D159" s="6" t="s">
@@ -8007,16 +8007,16 @@
         <v>450</v>
       </c>
       <c r="F159" s="7">
-        <f>D159-B159</f>
+        <f t="shared" si="51"/>
         <v>-1.7</v>
       </c>
       <c r="G159" s="2">
-        <f>E159-C159</f>
+        <f t="shared" si="52"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="H159" s="2">
-        <f t="shared" si="6"/>
-        <v>2.0000000000000115</v>
+        <f t="shared" si="28"/>
+        <v>1.7262676501632088</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="4"/>
@@ -8034,11 +8034,11 @@
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="6" t="str">
-        <f>LEFT(M5,FIND(";",M5)-1)</f>
+        <f t="shared" si="49"/>
         <v>51,3</v>
       </c>
       <c r="C160" s="6" t="str">
-        <f>MID(M5,FIND(";",M5)+1,LEN(M5)-FIND(";",M5))</f>
+        <f t="shared" si="50"/>
         <v>448,9</v>
       </c>
       <c r="D160" s="6" t="s">
@@ -8048,16 +8048,16 @@
         <v>450</v>
       </c>
       <c r="F160" s="7">
-        <f>D160-B160</f>
+        <f t="shared" si="51"/>
         <v>-1.2999999999999972</v>
       </c>
       <c r="G160" s="2">
-        <f>E160-C160</f>
+        <f t="shared" si="52"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="H160" s="2">
-        <f t="shared" ref="H160:H223" si="12">ABS(F160)+ABS(G160)</f>
-        <v>2.4000000000000199</v>
+        <f t="shared" ref="H160:H223" si="54">SQRT(ABS(F160)^2+ABS(G160)^2)</f>
+        <v>1.7029386365926527</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="4"/>
@@ -8075,11 +8075,11 @@
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="6" t="str">
-        <f>LEFT(M6,FIND(";",M6)-1)</f>
+        <f t="shared" si="49"/>
         <v>99,8</v>
       </c>
       <c r="C161" s="6" t="str">
-        <f>MID(M6,FIND(";",M6)+1,LEN(M6)-FIND(";",M6))</f>
+        <f t="shared" si="50"/>
         <v>448,4</v>
       </c>
       <c r="D161" s="6" t="s">
@@ -8089,16 +8089,16 @@
         <v>450</v>
       </c>
       <c r="F161" s="7">
-        <f>D161-B161</f>
+        <f t="shared" si="51"/>
         <v>0.20000000000000284</v>
       </c>
       <c r="G161" s="2">
-        <f>E161-C161</f>
+        <f t="shared" si="52"/>
         <v>1.6000000000000227</v>
       </c>
       <c r="H161" s="2">
-        <f t="shared" si="12"/>
-        <v>1.8000000000000256</v>
+        <f t="shared" si="54"/>
+        <v>1.6124515496597329</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="4"/>
@@ -8116,11 +8116,11 @@
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="6" t="str">
-        <f>LEFT(M7,FIND(";",M7)-1)</f>
+        <f t="shared" si="49"/>
         <v>150,7</v>
       </c>
       <c r="C162" s="6" t="str">
-        <f>MID(M7,FIND(";",M7)+1,LEN(M7)-FIND(";",M7))</f>
+        <f t="shared" si="50"/>
         <v>449,2</v>
       </c>
       <c r="D162" s="6" t="s">
@@ -8130,16 +8130,16 @@
         <v>450</v>
       </c>
       <c r="F162" s="7">
-        <f>D162-B162</f>
+        <f t="shared" si="51"/>
         <v>-0.69999999999998863</v>
       </c>
       <c r="G162" s="2">
-        <f>E162-C162</f>
+        <f t="shared" si="52"/>
         <v>0.80000000000001137</v>
       </c>
       <c r="H162" s="2">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f t="shared" si="54"/>
+        <v>1.0630145812734659</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="4"/>
@@ -8157,11 +8157,11 @@
     <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="6" t="str">
-        <f>LEFT(M8,FIND(";",M8)-1)</f>
+        <f t="shared" si="49"/>
         <v>200,4</v>
       </c>
       <c r="C163" s="6" t="str">
-        <f>MID(M8,FIND(";",M8)+1,LEN(M8)-FIND(";",M8))</f>
+        <f t="shared" si="50"/>
         <v>448,7</v>
       </c>
       <c r="D163" s="6" t="s">
@@ -8171,16 +8171,16 @@
         <v>450</v>
       </c>
       <c r="F163" s="7">
-        <f>D163-B163</f>
+        <f t="shared" si="51"/>
         <v>-0.40000000000000568</v>
       </c>
       <c r="G163" s="2">
-        <f>E163-C163</f>
+        <f t="shared" si="52"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="H163" s="2">
-        <f t="shared" si="12"/>
-        <v>1.7000000000000171</v>
+        <f t="shared" si="54"/>
+        <v>1.3601470508735569</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="4"/>
@@ -8198,11 +8198,11 @@
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="6" t="str">
-        <f>LEFT(M9,FIND(";",M9)-1)</f>
+        <f t="shared" si="49"/>
         <v>250,2</v>
       </c>
       <c r="C164" s="6" t="str">
-        <f>MID(M9,FIND(";",M9)+1,LEN(M9)-FIND(";",M9))</f>
+        <f t="shared" si="50"/>
         <v>448,3</v>
       </c>
       <c r="D164" s="6" t="s">
@@ -8212,16 +8212,16 @@
         <v>450</v>
       </c>
       <c r="F164" s="7">
-        <f>D164-B164</f>
+        <f t="shared" si="51"/>
         <v>-0.19999999999998863</v>
       </c>
       <c r="G164" s="2">
-        <f>E164-C164</f>
+        <f t="shared" si="52"/>
         <v>1.6999999999999886</v>
       </c>
       <c r="H164" s="2">
-        <f t="shared" si="12"/>
-        <v>1.8999999999999773</v>
+        <f t="shared" si="54"/>
+        <v>1.7117242768623564</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="4"/>
@@ -8239,11 +8239,11 @@
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="6" t="str">
-        <f>LEFT(M10,FIND(";",M10)-1)</f>
+        <f t="shared" si="49"/>
         <v>300,1</v>
       </c>
       <c r="C165" s="6" t="str">
-        <f>MID(M10,FIND(";",M10)+1,LEN(M10)-FIND(";",M10))</f>
+        <f t="shared" si="50"/>
         <v>449,0</v>
       </c>
       <c r="D165" s="6" t="s">
@@ -8253,16 +8253,16 @@
         <v>450</v>
       </c>
       <c r="F165" s="7">
-        <f>D165-B165</f>
+        <f t="shared" si="51"/>
         <v>-0.10000000000002274</v>
       </c>
       <c r="G165" s="2">
-        <f>E165-C165</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="H165" s="2">
-        <f t="shared" si="12"/>
-        <v>1.1000000000000227</v>
+        <f t="shared" si="54"/>
+        <v>1.0049875621120912</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="4"/>
@@ -8280,11 +8280,11 @@
     <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="6" t="str">
-        <f>LEFT(M11,FIND(";",M11)-1)</f>
+        <f t="shared" si="49"/>
         <v>350,0</v>
       </c>
       <c r="C166" s="6" t="str">
-        <f>MID(M11,FIND(";",M11)+1,LEN(M11)-FIND(";",M11))</f>
+        <f t="shared" si="50"/>
         <v>449,7</v>
       </c>
       <c r="D166" s="6" t="s">
@@ -8294,15 +8294,15 @@
         <v>450</v>
       </c>
       <c r="F166" s="7">
-        <f>D166-B166</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G166" s="2">
-        <f>E166-C166</f>
+        <f t="shared" si="52"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="H166" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="54"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="I166" s="2"/>
@@ -8321,11 +8321,11 @@
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="6" t="str">
-        <f>LEFT(M12,FIND(";",M12)-1)</f>
+        <f t="shared" si="49"/>
         <v>401,0</v>
       </c>
       <c r="C167" s="6" t="str">
-        <f>MID(M12,FIND(";",M12)+1,LEN(M12)-FIND(";",M12))</f>
+        <f t="shared" si="50"/>
         <v>449,3</v>
       </c>
       <c r="D167" s="6" t="s">
@@ -8335,16 +8335,16 @@
         <v>450</v>
       </c>
       <c r="F167" s="7">
-        <f>D167-B167</f>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G167" s="2">
-        <f>E167-C167</f>
+        <f t="shared" si="52"/>
         <v>0.69999999999998863</v>
       </c>
       <c r="H167" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6999999999999886</v>
+        <f t="shared" si="54"/>
+        <v>1.2206555615733636</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="4"/>
@@ -8362,11 +8362,11 @@
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="6" t="str">
-        <f>LEFT(M13,FIND(";",M13)-1)</f>
+        <f t="shared" si="49"/>
         <v>451,0</v>
       </c>
       <c r="C168" s="6" t="str">
-        <f>MID(M13,FIND(";",M13)+1,LEN(M13)-FIND(";",M13))</f>
+        <f t="shared" si="50"/>
         <v>450,0</v>
       </c>
       <c r="D168" s="6" t="s">
@@ -8376,15 +8376,15 @@
         <v>450</v>
       </c>
       <c r="F168" s="7">
-        <f>D168-B168</f>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G168" s="2">
-        <f>E168-C168</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H168" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I168" s="2"/>
@@ -8403,11 +8403,11 @@
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="6" t="str">
-        <f>LEFT(M14,FIND(";",M14)-1)</f>
+        <f t="shared" si="49"/>
         <v>499,8</v>
       </c>
       <c r="C169" s="6" t="str">
-        <f>MID(M14,FIND(";",M14)+1,LEN(M14)-FIND(";",M14))</f>
+        <f t="shared" si="50"/>
         <v>449,6</v>
       </c>
       <c r="D169" s="6" t="s">
@@ -8417,16 +8417,16 @@
         <v>450</v>
       </c>
       <c r="F169" s="7">
-        <f>D169-B169</f>
+        <f t="shared" si="51"/>
         <v>0.19999999999998863</v>
       </c>
       <c r="G169" s="2">
-        <f>E169-C169</f>
+        <f t="shared" si="52"/>
         <v>0.39999999999997726</v>
       </c>
       <c r="H169" s="2">
-        <f t="shared" si="12"/>
-        <v>0.59999999999996589</v>
+        <f t="shared" si="54"/>
+        <v>0.44721359549993256</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="4"/>
@@ -8444,11 +8444,11 @@
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="6" t="str">
-        <f>LEFT(M15,FIND(";",M15)-1)</f>
+        <f t="shared" si="49"/>
         <v>551,0</v>
       </c>
       <c r="C170" s="6" t="str">
-        <f>MID(M15,FIND(";",M15)+1,LEN(M15)-FIND(";",M15))</f>
+        <f t="shared" si="50"/>
         <v>449,1</v>
       </c>
       <c r="D170" s="6" t="s">
@@ -8458,21 +8458,21 @@
         <v>450</v>
       </c>
       <c r="F170" s="7">
-        <f>D170-B170</f>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G170" s="2">
-        <f>E170-C170</f>
+        <f t="shared" si="52"/>
         <v>0.89999999999997726</v>
       </c>
       <c r="H170" s="2">
-        <f t="shared" si="12"/>
-        <v>1.8999999999999773</v>
+        <f t="shared" si="54"/>
+        <v>1.3453624047073558</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="4">
         <f>AVERAGE(H158:H170)</f>
-        <v>1.5538461538461543</v>
+        <v>1.2772511677146634</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="6"/>
@@ -8510,11 +8510,11 @@
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="6" t="str">
-        <f>LEFT(N3,FIND(";",N3)-1)</f>
+        <f t="shared" ref="B172:B184" si="55">LEFT(N3,FIND(";",N3)-1)</f>
         <v>-48,6</v>
       </c>
       <c r="C172" s="6" t="str">
-        <f>MID(N3,FIND(";",N3)+1,LEN(N3)-FIND(";",N3))</f>
+        <f t="shared" ref="C172:C184" si="56">MID(N3,FIND(";",N3)+1,LEN(N3)-FIND(";",N3))</f>
         <v>499,7</v>
       </c>
       <c r="D172" s="6" t="s">
@@ -8524,16 +8524,16 @@
         <v>500</v>
       </c>
       <c r="F172" s="7">
-        <f>D172-B172</f>
+        <f t="shared" ref="F172:F184" si="57">D172-B172</f>
         <v>-1.3999999999999986</v>
       </c>
       <c r="G172" s="2">
-        <f>E172-C172</f>
+        <f t="shared" ref="G172:G184" si="58">E172-C172</f>
         <v>0.30000000000001137</v>
       </c>
       <c r="H172" s="2">
-        <f t="shared" ref="H172" si="13">ABS(F172)+ABS(G172)</f>
-        <v>1.7000000000000099</v>
+        <f t="shared" ref="H172" si="59">SQRT(ABS(F172)^2+ABS(G172)^2)</f>
+        <v>1.4317821063276364</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="4"/>
@@ -8551,11 +8551,11 @@
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="6" t="str">
-        <f>LEFT(N4,FIND(";",N4)-1)</f>
+        <f t="shared" si="55"/>
         <v>1,0</v>
       </c>
       <c r="C173" s="6" t="str">
-        <f>MID(N4,FIND(";",N4)+1,LEN(N4)-FIND(";",N4))</f>
+        <f t="shared" si="56"/>
         <v>500,4</v>
       </c>
       <c r="D173" s="6" t="s">
@@ -8565,16 +8565,16 @@
         <v>500</v>
       </c>
       <c r="F173" s="7">
-        <f>D173-B173</f>
+        <f t="shared" si="57"/>
         <v>-1</v>
       </c>
       <c r="G173" s="2">
-        <f>E173-C173</f>
+        <f t="shared" si="58"/>
         <v>-0.39999999999997726</v>
       </c>
       <c r="H173" s="2">
-        <f t="shared" si="12"/>
-        <v>1.3999999999999773</v>
+        <f t="shared" si="54"/>
+        <v>1.0770329614268923</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="4"/>
@@ -8592,11 +8592,11 @@
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="6" t="str">
-        <f>LEFT(N5,FIND(";",N5)-1)</f>
+        <f t="shared" si="55"/>
         <v>50,6</v>
       </c>
       <c r="C174" s="6" t="str">
-        <f>MID(N5,FIND(";",N5)+1,LEN(N5)-FIND(";",N5))</f>
+        <f t="shared" si="56"/>
         <v>500,0</v>
       </c>
       <c r="D174" s="6" t="s">
@@ -8606,15 +8606,15 @@
         <v>500</v>
       </c>
       <c r="F174" s="7">
-        <f>D174-B174</f>
+        <f t="shared" si="57"/>
         <v>-0.60000000000000142</v>
       </c>
       <c r="G174" s="2">
-        <f>E174-C174</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="H174" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="54"/>
         <v>0.60000000000000142</v>
       </c>
       <c r="I174" s="2"/>
@@ -8633,11 +8633,11 @@
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="6" t="str">
-        <f>LEFT(N6,FIND(";",N6)-1)</f>
+        <f t="shared" si="55"/>
         <v>100,2</v>
       </c>
       <c r="C175" s="6" t="str">
-        <f>MID(N6,FIND(";",N6)+1,LEN(N6)-FIND(";",N6))</f>
+        <f t="shared" si="56"/>
         <v>499,6</v>
       </c>
       <c r="D175" s="6" t="s">
@@ -8647,16 +8647,16 @@
         <v>500</v>
       </c>
       <c r="F175" s="7">
-        <f>D175-B175</f>
+        <f t="shared" si="57"/>
         <v>-0.20000000000000284</v>
       </c>
       <c r="G175" s="2">
-        <f>E175-C175</f>
+        <f t="shared" si="58"/>
         <v>0.39999999999997726</v>
       </c>
       <c r="H175" s="2">
-        <f t="shared" si="12"/>
-        <v>0.5999999999999801</v>
+        <f t="shared" si="54"/>
+        <v>0.44721359549993889</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="4"/>
@@ -8674,11 +8674,11 @@
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="6" t="str">
-        <f>LEFT(N7,FIND(";",N7)-1)</f>
+        <f t="shared" si="55"/>
         <v>150,0</v>
       </c>
       <c r="C176" s="6" t="str">
-        <f>MID(N7,FIND(";",N7)+1,LEN(N7)-FIND(";",N7))</f>
+        <f t="shared" si="56"/>
         <v>499,1</v>
       </c>
       <c r="D176" s="6" t="s">
@@ -8688,15 +8688,15 @@
         <v>500</v>
       </c>
       <c r="F176" s="7">
-        <f>D176-B176</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G176" s="2">
-        <f>E176-C176</f>
+        <f t="shared" si="58"/>
         <v>0.89999999999997726</v>
       </c>
       <c r="H176" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="54"/>
         <v>0.89999999999997726</v>
       </c>
       <c r="I176" s="2"/>
@@ -8715,11 +8715,11 @@
     <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="6" t="str">
-        <f>LEFT(N8,FIND(";",N8)-1)</f>
+        <f t="shared" si="55"/>
         <v>200,8</v>
       </c>
       <c r="C177" s="6" t="str">
-        <f>MID(N8,FIND(";",N8)+1,LEN(N8)-FIND(";",N8))</f>
+        <f t="shared" si="56"/>
         <v>498,7</v>
       </c>
       <c r="D177" s="6" t="s">
@@ -8729,16 +8729,16 @@
         <v>500</v>
       </c>
       <c r="F177" s="7">
-        <f>D177-B177</f>
+        <f t="shared" si="57"/>
         <v>-0.80000000000001137</v>
       </c>
       <c r="G177" s="2">
-        <f>E177-C177</f>
+        <f t="shared" si="58"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="H177" s="2">
-        <f t="shared" si="12"/>
-        <v>2.1000000000000227</v>
+        <f t="shared" si="54"/>
+        <v>1.5264337522473903</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="4"/>
@@ -8756,11 +8756,11 @@
     <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="6" t="str">
-        <f>LEFT(N9,FIND(";",N9)-1)</f>
+        <f t="shared" si="55"/>
         <v>250,6</v>
       </c>
       <c r="C178" s="6" t="str">
-        <f>MID(N9,FIND(";",N9)+1,LEN(N9)-FIND(";",N9))</f>
+        <f t="shared" si="56"/>
         <v>499,5</v>
       </c>
       <c r="D178" s="6" t="s">
@@ -8770,16 +8770,16 @@
         <v>500</v>
       </c>
       <c r="F178" s="7">
-        <f>D178-B178</f>
+        <f t="shared" si="57"/>
         <v>-0.59999999999999432</v>
       </c>
       <c r="G178" s="2">
-        <f>E178-C178</f>
+        <f t="shared" si="58"/>
         <v>0.5</v>
       </c>
       <c r="H178" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0999999999999943</v>
+        <f t="shared" si="54"/>
+        <v>0.78102496759066109</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="4"/>
@@ -8797,11 +8797,11 @@
     <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="6" t="str">
-        <f>LEFT(N10,FIND(";",N10)-1)</f>
+        <f t="shared" si="55"/>
         <v>300,4</v>
       </c>
       <c r="C179" s="6" t="str">
-        <f>MID(N10,FIND(";",N10)+1,LEN(N10)-FIND(";",N10))</f>
+        <f t="shared" si="56"/>
         <v>499,0</v>
       </c>
       <c r="D179" s="6" t="s">
@@ -8811,16 +8811,16 @@
         <v>500</v>
       </c>
       <c r="F179" s="7">
-        <f>D179-B179</f>
+        <f t="shared" si="57"/>
         <v>-0.39999999999997726</v>
       </c>
       <c r="G179" s="2">
-        <f>E179-C179</f>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="H179" s="2">
-        <f t="shared" si="12"/>
-        <v>1.3999999999999773</v>
+        <f t="shared" si="54"/>
+        <v>1.0770329614268923</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="4"/>
@@ -8838,11 +8838,11 @@
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="6" t="str">
-        <f>LEFT(N11,FIND(";",N11)-1)</f>
+        <f t="shared" si="55"/>
         <v>351,5</v>
       </c>
       <c r="C180" s="6" t="str">
-        <f>MID(N11,FIND(";",N11)+1,LEN(N11)-FIND(";",N11))</f>
+        <f t="shared" si="56"/>
         <v>499,8</v>
       </c>
       <c r="D180" s="6" t="s">
@@ -8852,16 +8852,16 @@
         <v>500</v>
       </c>
       <c r="F180" s="7">
-        <f>D180-B180</f>
+        <f t="shared" si="57"/>
         <v>-1.5</v>
       </c>
       <c r="G180" s="2">
-        <f>E180-C180</f>
+        <f t="shared" si="58"/>
         <v>0.19999999999998863</v>
       </c>
       <c r="H180" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6999999999999886</v>
+        <f t="shared" si="54"/>
+        <v>1.5132745950421542</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="4"/>
@@ -8879,11 +8879,11 @@
     <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="6" t="str">
-        <f>LEFT(N12,FIND(";",N12)-1)</f>
+        <f t="shared" si="55"/>
         <v>401,4</v>
       </c>
       <c r="C181" s="6" t="str">
-        <f>MID(N12,FIND(";",N12)+1,LEN(N12)-FIND(";",N12))</f>
+        <f t="shared" si="56"/>
         <v>500,5</v>
       </c>
       <c r="D181" s="6" t="s">
@@ -8893,16 +8893,16 @@
         <v>500</v>
       </c>
       <c r="F181" s="7">
-        <f>D181-B181</f>
+        <f t="shared" si="57"/>
         <v>-1.3999999999999773</v>
       </c>
       <c r="G181" s="2">
-        <f>E181-C181</f>
+        <f t="shared" si="58"/>
         <v>-0.5</v>
       </c>
       <c r="H181" s="2">
-        <f t="shared" si="12"/>
-        <v>1.8999999999999773</v>
+        <f t="shared" si="54"/>
+        <v>1.4866068747318291</v>
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="4"/>
@@ -8920,11 +8920,11 @@
     <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="6" t="str">
-        <f>LEFT(N13,FIND(";",N13)-1)</f>
+        <f t="shared" si="55"/>
         <v>451,3</v>
       </c>
       <c r="C182" s="6" t="str">
-        <f>MID(N13,FIND(";",N13)+1,LEN(N13)-FIND(";",N13))</f>
+        <f t="shared" si="56"/>
         <v>500,1</v>
       </c>
       <c r="D182" s="6" t="s">
@@ -8934,16 +8934,16 @@
         <v>500</v>
       </c>
       <c r="F182" s="7">
-        <f>D182-B182</f>
+        <f t="shared" si="57"/>
         <v>-1.3000000000000114</v>
       </c>
       <c r="G182" s="2">
-        <f>E182-C182</f>
+        <f t="shared" si="58"/>
         <v>-0.10000000000002274</v>
       </c>
       <c r="H182" s="2">
-        <f t="shared" si="12"/>
-        <v>1.4000000000000341</v>
+        <f t="shared" si="54"/>
+        <v>1.3038404810405428</v>
       </c>
       <c r="I182" s="2"/>
       <c r="J182" s="4"/>
@@ -8961,11 +8961,11 @@
     <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6" t="str">
-        <f>LEFT(N14,FIND(";",N14)-1)</f>
+        <f t="shared" si="55"/>
         <v>501,3</v>
       </c>
       <c r="C183" s="6" t="str">
-        <f>MID(N14,FIND(";",N14)+1,LEN(N14)-FIND(";",N14))</f>
+        <f t="shared" si="56"/>
         <v>500,8</v>
       </c>
       <c r="D183" s="6" t="s">
@@ -8975,16 +8975,16 @@
         <v>500</v>
       </c>
       <c r="F183" s="7">
-        <f>D183-B183</f>
+        <f t="shared" si="57"/>
         <v>-1.3000000000000114</v>
       </c>
       <c r="G183" s="2">
-        <f>E183-C183</f>
+        <f t="shared" si="58"/>
         <v>-0.80000000000001137</v>
       </c>
       <c r="H183" s="2">
-        <f t="shared" si="12"/>
-        <v>2.1000000000000227</v>
+        <f t="shared" si="54"/>
+        <v>1.5264337522473903</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="4"/>
@@ -9002,11 +9002,11 @@
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="6" t="str">
-        <f>LEFT(N15,FIND(";",N15)-1)</f>
+        <f t="shared" si="55"/>
         <v>552,5</v>
       </c>
       <c r="C184" s="6" t="str">
-        <f>MID(N15,FIND(";",N15)+1,LEN(N15)-FIND(";",N15))</f>
+        <f t="shared" si="56"/>
         <v>501,6</v>
       </c>
       <c r="D184" s="6" t="s">
@@ -9016,21 +9016,21 @@
         <v>500</v>
       </c>
       <c r="F184" s="7">
-        <f>D184-B184</f>
+        <f t="shared" si="57"/>
         <v>-2.5</v>
       </c>
       <c r="G184" s="2">
-        <f>E184-C184</f>
+        <f t="shared" si="58"/>
         <v>-1.6000000000000227</v>
       </c>
       <c r="H184" s="2">
-        <f t="shared" si="12"/>
-        <v>4.1000000000000227</v>
+        <f t="shared" si="54"/>
+        <v>2.9681644159311782</v>
       </c>
       <c r="I184" s="2"/>
       <c r="J184" s="4">
         <f>AVERAGE(H172:H184)</f>
-        <v>1.6153846153846143</v>
+        <v>1.2799108048855758</v>
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="6"/>
@@ -9068,11 +9068,11 @@
     <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="6" t="str">
-        <f>LEFT(O3,FIND(";",O3)-1)</f>
+        <f t="shared" ref="B186:B198" si="60">LEFT(O3,FIND(";",O3)-1)</f>
         <v>-48,1</v>
       </c>
       <c r="C186" s="6" t="str">
-        <f>MID(O3,FIND(";",O3)+1,LEN(O3)-FIND(";",O3))</f>
+        <f t="shared" ref="C186:C198" si="61">MID(O3,FIND(";",O3)+1,LEN(O3)-FIND(";",O3))</f>
         <v>549,5</v>
       </c>
       <c r="D186" s="6" t="s">
@@ -9082,16 +9082,16 @@
         <v>550</v>
       </c>
       <c r="F186" s="7">
-        <f>D186-B186</f>
+        <f t="shared" ref="F186:F198" si="62">D186-B186</f>
         <v>-1.8999999999999986</v>
       </c>
       <c r="G186" s="2">
-        <f>E186-C186</f>
+        <f t="shared" ref="G186:G198" si="63">E186-C186</f>
         <v>0.5</v>
       </c>
       <c r="H186" s="2">
-        <f t="shared" ref="H186" si="14">ABS(F186)+ABS(G186)</f>
-        <v>2.3999999999999986</v>
+        <f t="shared" ref="H186" si="64">SQRT(ABS(F186)^2+ABS(G186)^2)</f>
+        <v>1.9646882704388486</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="4"/>
@@ -9109,11 +9109,11 @@
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="6" t="str">
-        <f>LEFT(O4,FIND(";",O4)-1)</f>
+        <f t="shared" si="60"/>
         <v>1,4</v>
       </c>
       <c r="C187" s="6" t="str">
-        <f>MID(O4,FIND(";",O4)+1,LEN(O4)-FIND(";",O4))</f>
+        <f t="shared" si="61"/>
         <v>550,3</v>
       </c>
       <c r="D187" s="6" t="s">
@@ -9123,16 +9123,16 @@
         <v>550</v>
       </c>
       <c r="F187" s="7">
-        <f>D187-B187</f>
+        <f t="shared" si="62"/>
         <v>-1.4</v>
       </c>
       <c r="G187" s="2">
-        <f>E187-C187</f>
+        <f t="shared" si="63"/>
         <v>-0.29999999999995453</v>
       </c>
       <c r="H187" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6999999999999544</v>
+        <f t="shared" si="54"/>
+        <v>1.4317821063276257</v>
       </c>
       <c r="I187" s="2"/>
       <c r="J187" s="4"/>
@@ -9150,11 +9150,11 @@
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="6" t="str">
-        <f>LEFT(O5,FIND(";",O5)-1)</f>
+        <f t="shared" si="60"/>
         <v>51,0</v>
       </c>
       <c r="C188" s="6" t="str">
-        <f>MID(O5,FIND(";",O5)+1,LEN(O5)-FIND(";",O5))</f>
+        <f t="shared" si="61"/>
         <v>549,9</v>
       </c>
       <c r="D188" s="6" t="s">
@@ -9164,16 +9164,16 @@
         <v>550</v>
       </c>
       <c r="F188" s="7">
-        <f>D188-B188</f>
+        <f t="shared" si="62"/>
         <v>-1</v>
       </c>
       <c r="G188" s="2">
-        <f>E188-C188</f>
+        <f t="shared" si="63"/>
         <v>0.10000000000002274</v>
       </c>
       <c r="H188" s="2">
-        <f t="shared" si="12"/>
-        <v>1.1000000000000227</v>
+        <f t="shared" si="54"/>
+        <v>1.0049875621120912</v>
       </c>
       <c r="I188" s="2"/>
       <c r="J188" s="4"/>
@@ -9191,11 +9191,11 @@
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="6" t="str">
-        <f>LEFT(O6,FIND(";",O6)-1)</f>
+        <f t="shared" si="60"/>
         <v>100,7</v>
       </c>
       <c r="C189" s="6" t="str">
-        <f>MID(O6,FIND(";",O6)+1,LEN(O6)-FIND(";",O6))</f>
+        <f t="shared" si="61"/>
         <v>549,5</v>
       </c>
       <c r="D189" s="6" t="s">
@@ -9205,16 +9205,16 @@
         <v>550</v>
       </c>
       <c r="F189" s="7">
-        <f>D189-B189</f>
+        <f t="shared" si="62"/>
         <v>-0.70000000000000284</v>
       </c>
       <c r="G189" s="2">
-        <f>E189-C189</f>
+        <f t="shared" si="63"/>
         <v>0.5</v>
       </c>
       <c r="H189" s="2">
-        <f t="shared" si="12"/>
-        <v>1.2000000000000028</v>
+        <f t="shared" si="54"/>
+        <v>0.86023252670426498</v>
       </c>
       <c r="I189" s="2"/>
       <c r="J189" s="4"/>
@@ -9232,11 +9232,11 @@
     <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="6" t="str">
-        <f>LEFT(O7,FIND(";",O7)-1)</f>
+        <f t="shared" si="60"/>
         <v>150,3</v>
       </c>
       <c r="C190" s="6" t="str">
-        <f>MID(O7,FIND(";",O7)+1,LEN(O7)-FIND(";",O7))</f>
+        <f t="shared" si="61"/>
         <v>550,3</v>
       </c>
       <c r="D190" s="6" t="s">
@@ -9246,16 +9246,16 @@
         <v>550</v>
       </c>
       <c r="F190" s="7">
-        <f>D190-B190</f>
+        <f t="shared" si="62"/>
         <v>-0.30000000000001137</v>
       </c>
       <c r="G190" s="2">
-        <f>E190-C190</f>
+        <f t="shared" si="63"/>
         <v>-0.29999999999995453</v>
       </c>
       <c r="H190" s="2">
-        <f t="shared" si="12"/>
-        <v>0.59999999999996589</v>
+        <f t="shared" si="54"/>
+        <v>0.42426406871190442</v>
       </c>
       <c r="I190" s="2"/>
       <c r="J190" s="4"/>
@@ -9273,11 +9273,11 @@
     <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="6" t="str">
-        <f>LEFT(O8,FIND(";",O8)-1)</f>
+        <f t="shared" si="60"/>
         <v>201,2</v>
       </c>
       <c r="C191" s="6" t="str">
-        <f>MID(O8,FIND(";",O8)+1,LEN(O8)-FIND(";",O8))</f>
+        <f t="shared" si="61"/>
         <v>549,9</v>
       </c>
       <c r="D191" s="6" t="s">
@@ -9287,16 +9287,16 @@
         <v>550</v>
       </c>
       <c r="F191" s="7">
-        <f>D191-B191</f>
+        <f t="shared" si="62"/>
         <v>-1.1999999999999886</v>
       </c>
       <c r="G191" s="2">
-        <f>E191-C191</f>
+        <f t="shared" si="63"/>
         <v>0.10000000000002274</v>
       </c>
       <c r="H191" s="2">
-        <f t="shared" si="12"/>
-        <v>1.3000000000000114</v>
+        <f t="shared" si="54"/>
+        <v>1.2041594578792201</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="4"/>
@@ -9314,11 +9314,11 @@
     <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="6" t="str">
-        <f>LEFT(O9,FIND(";",O9)-1)</f>
+        <f t="shared" si="60"/>
         <v>251,0</v>
       </c>
       <c r="C192" s="6" t="str">
-        <f>MID(O9,FIND(";",O9)+1,LEN(O9)-FIND(";",O9))</f>
+        <f t="shared" si="61"/>
         <v>550,6</v>
       </c>
       <c r="D192" s="6" t="s">
@@ -9328,16 +9328,16 @@
         <v>550</v>
       </c>
       <c r="F192" s="7">
-        <f>D192-B192</f>
+        <f t="shared" si="62"/>
         <v>-1</v>
       </c>
       <c r="G192" s="2">
-        <f>E192-C192</f>
+        <f t="shared" si="63"/>
         <v>-0.60000000000002274</v>
       </c>
       <c r="H192" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6000000000000227</v>
+        <f t="shared" si="54"/>
+        <v>1.1661903789690717</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="4"/>
@@ -9355,11 +9355,11 @@
     <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="6" t="str">
-        <f>LEFT(O10,FIND(";",O10)-1)</f>
+        <f t="shared" si="60"/>
         <v>300,8</v>
       </c>
       <c r="C193" s="6" t="str">
-        <f>MID(O10,FIND(";",O10)+1,LEN(O10)-FIND(";",O10))</f>
+        <f t="shared" si="61"/>
         <v>550,2</v>
       </c>
       <c r="D193" s="6" t="s">
@@ -9369,16 +9369,16 @@
         <v>550</v>
       </c>
       <c r="F193" s="7">
-        <f>D193-B193</f>
+        <f t="shared" si="62"/>
         <v>-0.80000000000001137</v>
       </c>
       <c r="G193" s="2">
-        <f>E193-C193</f>
+        <f t="shared" si="63"/>
         <v>-0.20000000000004547</v>
       </c>
       <c r="H193" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0000000000000568</v>
+        <f t="shared" si="54"/>
+        <v>0.82462112512355412</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="4"/>
@@ -9396,11 +9396,11 @@
     <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="6" t="str">
-        <f>LEFT(O11,FIND(";",O11)-1)</f>
+        <f t="shared" si="60"/>
         <v>350,7</v>
       </c>
       <c r="C194" s="6" t="str">
-        <f>MID(O11,FIND(";",O11)+1,LEN(O11)-FIND(";",O11))</f>
+        <f t="shared" si="61"/>
         <v>551,0</v>
       </c>
       <c r="D194" s="6" t="s">
@@ -9410,16 +9410,16 @@
         <v>550</v>
       </c>
       <c r="F194" s="7">
-        <f>D194-B194</f>
+        <f t="shared" si="62"/>
         <v>-0.69999999999998863</v>
       </c>
       <c r="G194" s="2">
-        <f>E194-C194</f>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="H194" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6999999999999886</v>
+        <f t="shared" si="54"/>
+        <v>1.2206555615733636</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="4"/>
@@ -9437,11 +9437,11 @@
     <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="6" t="str">
-        <f>LEFT(O12,FIND(";",O12)-1)</f>
+        <f t="shared" si="60"/>
         <v>401,7</v>
       </c>
       <c r="C195" s="6" t="str">
-        <f>MID(O12,FIND(";",O12)+1,LEN(O12)-FIND(";",O12))</f>
+        <f t="shared" si="61"/>
         <v>550,6</v>
       </c>
       <c r="D195" s="6" t="s">
@@ -9451,16 +9451,16 @@
         <v>550</v>
       </c>
       <c r="F195" s="7">
-        <f>D195-B195</f>
+        <f t="shared" si="62"/>
         <v>-1.6999999999999886</v>
       </c>
       <c r="G195" s="2">
-        <f>E195-C195</f>
+        <f t="shared" si="63"/>
         <v>-0.60000000000002274</v>
       </c>
       <c r="H195" s="2">
-        <f t="shared" si="12"/>
-        <v>2.3000000000000114</v>
+        <f t="shared" si="54"/>
+        <v>1.8027756377319917</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="4"/>
@@ -9478,11 +9478,11 @@
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="6" t="str">
-        <f>LEFT(O13,FIND(";",O13)-1)</f>
+        <f t="shared" si="60"/>
         <v>450,5</v>
       </c>
       <c r="C196" s="6" t="str">
-        <f>MID(O13,FIND(";",O13)+1,LEN(O13)-FIND(";",O13))</f>
+        <f t="shared" si="61"/>
         <v>550,2</v>
       </c>
       <c r="D196" s="6" t="s">
@@ -9492,16 +9492,16 @@
         <v>550</v>
       </c>
       <c r="F196" s="7">
-        <f>D196-B196</f>
+        <f t="shared" si="62"/>
         <v>-0.5</v>
       </c>
       <c r="G196" s="2">
-        <f>E196-C196</f>
+        <f t="shared" si="63"/>
         <v>-0.20000000000004547</v>
       </c>
       <c r="H196" s="2">
-        <f t="shared" si="12"/>
-        <v>0.70000000000004547</v>
+        <f t="shared" si="54"/>
+        <v>0.53851648071346725</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="4"/>
@@ -9519,11 +9519,11 @@
     <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="6" t="str">
-        <f>LEFT(O14,FIND(";",O14)-1)</f>
+        <f t="shared" si="60"/>
         <v>500,5</v>
       </c>
       <c r="C197" s="6" t="str">
-        <f>MID(O14,FIND(";",O14)+1,LEN(O14)-FIND(";",O14))</f>
+        <f t="shared" si="61"/>
         <v>551,0</v>
       </c>
       <c r="D197" s="6" t="s">
@@ -9533,16 +9533,16 @@
         <v>550</v>
       </c>
       <c r="F197" s="7">
-        <f>D197-B197</f>
+        <f t="shared" si="62"/>
         <v>-0.5</v>
       </c>
       <c r="G197" s="2">
-        <f>E197-C197</f>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="H197" s="2">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f t="shared" si="54"/>
+        <v>1.1180339887498949</v>
       </c>
       <c r="I197" s="2"/>
       <c r="J197" s="4"/>
@@ -9560,11 +9560,11 @@
     <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="6" t="str">
-        <f>LEFT(O15,FIND(";",O15)-1)</f>
+        <f t="shared" si="60"/>
         <v>552,8</v>
       </c>
       <c r="C198" s="6" t="str">
-        <f>MID(O15,FIND(";",O15)+1,LEN(O15)-FIND(";",O15))</f>
+        <f t="shared" si="61"/>
         <v>551,7</v>
       </c>
       <c r="D198" s="6" t="s">
@@ -9574,21 +9574,21 @@
         <v>550</v>
       </c>
       <c r="F198" s="7">
-        <f>D198-B198</f>
+        <f t="shared" si="62"/>
         <v>-2.7999999999999545</v>
       </c>
       <c r="G198" s="2">
-        <f>E198-C198</f>
+        <f t="shared" si="63"/>
         <v>-1.7000000000000455</v>
       </c>
       <c r="H198" s="2">
-        <f t="shared" si="12"/>
-        <v>4.5</v>
+        <f t="shared" si="54"/>
+        <v>3.2756678708318248</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="4">
         <f>AVERAGE(H186:H198)</f>
-        <v>1.6615384615384676</v>
+        <v>1.295121156605163</v>
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="6"/>
@@ -9626,11 +9626,11 @@
     <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="6" t="str">
-        <f>LEFT(P3,FIND(";",P3)-1)</f>
+        <f t="shared" ref="B200:B212" si="65">LEFT(P3,FIND(";",P3)-1)</f>
         <v>-47,7</v>
       </c>
       <c r="C200" s="6" t="str">
-        <f>MID(P3,FIND(";",P3)+1,LEN(P3)-FIND(";",P3))</f>
+        <f t="shared" ref="C200:C212" si="66">MID(P3,FIND(";",P3)+1,LEN(P3)-FIND(";",P3))</f>
         <v>600,5</v>
       </c>
       <c r="D200" s="6" t="s">
@@ -9640,16 +9640,16 @@
         <v>600</v>
       </c>
       <c r="F200" s="7">
-        <f>D200-B200</f>
+        <f t="shared" ref="F200:F212" si="67">D200-B200</f>
         <v>-2.2999999999999972</v>
       </c>
       <c r="G200" s="2">
-        <f>E200-C200</f>
+        <f t="shared" ref="G200:G212" si="68">E200-C200</f>
         <v>-0.5</v>
       </c>
       <c r="H200" s="2">
-        <f t="shared" ref="H200" si="15">ABS(F200)+ABS(G200)</f>
-        <v>2.7999999999999972</v>
+        <f t="shared" ref="H200" si="69">SQRT(ABS(F200)^2+ABS(G200)^2)</f>
+        <v>2.353720459187961</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="4"/>
@@ -9667,11 +9667,11 @@
     <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="6" t="str">
-        <f>LEFT(P4,FIND(";",P4)-1)</f>
+        <f t="shared" si="65"/>
         <v>1,9</v>
       </c>
       <c r="C201" s="6" t="str">
-        <f>MID(P4,FIND(";",P4)+1,LEN(P4)-FIND(";",P4))</f>
+        <f t="shared" si="66"/>
         <v>601,3</v>
       </c>
       <c r="D201" s="6" t="s">
@@ -9681,16 +9681,16 @@
         <v>600</v>
       </c>
       <c r="F201" s="7">
-        <f>D201-B201</f>
+        <f t="shared" si="67"/>
         <v>-1.9</v>
       </c>
       <c r="G201" s="2">
-        <f>E201-C201</f>
+        <f t="shared" si="68"/>
         <v>-1.2999999999999545</v>
       </c>
       <c r="H201" s="2">
-        <f t="shared" si="12"/>
-        <v>3.1999999999999544</v>
+        <f t="shared" si="54"/>
+        <v>2.3021728866442421</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="4"/>
@@ -9708,11 +9708,11 @@
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="6" t="str">
-        <f>LEFT(P5,FIND(";",P5)-1)</f>
+        <f t="shared" si="65"/>
         <v>51,5</v>
       </c>
       <c r="C202" s="6" t="str">
-        <f>MID(P5,FIND(";",P5)+1,LEN(P5)-FIND(";",P5))</f>
+        <f t="shared" si="66"/>
         <v>601,0</v>
       </c>
       <c r="D202" s="6" t="s">
@@ -9722,16 +9722,16 @@
         <v>600</v>
       </c>
       <c r="F202" s="7">
-        <f>D202-B202</f>
+        <f t="shared" si="67"/>
         <v>-1.5</v>
       </c>
       <c r="G202" s="2">
-        <f>E202-C202</f>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H202" s="2">
-        <f t="shared" si="12"/>
-        <v>2.5</v>
+        <f t="shared" si="54"/>
+        <v>1.8027756377319946</v>
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="4"/>
@@ -9749,11 +9749,11 @@
     <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="6" t="str">
-        <f>LEFT(P6,FIND(";",P6)-1)</f>
+        <f t="shared" si="65"/>
         <v>101,1</v>
       </c>
       <c r="C203" s="6" t="str">
-        <f>MID(P6,FIND(";",P6)+1,LEN(P6)-FIND(";",P6))</f>
+        <f t="shared" si="66"/>
         <v>600,6</v>
       </c>
       <c r="D203" s="6" t="s">
@@ -9763,16 +9763,16 @@
         <v>600</v>
       </c>
       <c r="F203" s="7">
-        <f>D203-B203</f>
+        <f t="shared" si="67"/>
         <v>-1.0999999999999943</v>
       </c>
       <c r="G203" s="2">
-        <f>E203-C203</f>
+        <f t="shared" si="68"/>
         <v>-0.60000000000002274</v>
       </c>
       <c r="H203" s="2">
-        <f t="shared" si="12"/>
-        <v>1.7000000000000171</v>
+        <f t="shared" si="54"/>
+        <v>1.2529964086141727</v>
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="4"/>
@@ -9790,11 +9790,11 @@
     <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="6" t="str">
-        <f>LEFT(P7,FIND(";",P7)-1)</f>
+        <f t="shared" si="65"/>
         <v>150,8</v>
       </c>
       <c r="C204" s="6" t="str">
-        <f>MID(P7,FIND(";",P7)+1,LEN(P7)-FIND(";",P7))</f>
+        <f t="shared" si="66"/>
         <v>600,2</v>
       </c>
       <c r="D204" s="6" t="s">
@@ -9804,16 +9804,16 @@
         <v>600</v>
       </c>
       <c r="F204" s="7">
-        <f>D204-B204</f>
+        <f t="shared" si="67"/>
         <v>-0.80000000000001137</v>
       </c>
       <c r="G204" s="2">
-        <f>E204-C204</f>
+        <f t="shared" si="68"/>
         <v>-0.20000000000004547</v>
       </c>
       <c r="H204" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0000000000000568</v>
+        <f t="shared" si="54"/>
+        <v>0.82462112512355412</v>
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="4"/>
@@ -9831,11 +9831,11 @@
     <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="6" t="str">
-        <f>LEFT(P8,FIND(";",P8)-1)</f>
+        <f t="shared" si="65"/>
         <v>201,6</v>
       </c>
       <c r="C205" s="6" t="str">
-        <f>MID(P8,FIND(";",P8)+1,LEN(P8)-FIND(";",P8))</f>
+        <f t="shared" si="66"/>
         <v>601,0</v>
       </c>
       <c r="D205" s="6" t="s">
@@ -9845,16 +9845,16 @@
         <v>600</v>
       </c>
       <c r="F205" s="7">
-        <f>D205-B205</f>
+        <f t="shared" si="67"/>
         <v>-1.5999999999999943</v>
       </c>
       <c r="G205" s="2">
-        <f>E205-C205</f>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H205" s="2">
-        <f t="shared" si="12"/>
-        <v>2.5999999999999943</v>
+        <f t="shared" si="54"/>
+        <v>1.8867962264113161</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="4"/>
@@ -9872,11 +9872,11 @@
     <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="6" t="str">
-        <f>LEFT(P9,FIND(";",P9)-1)</f>
+        <f t="shared" si="65"/>
         <v>250,2</v>
       </c>
       <c r="C206" s="6" t="str">
-        <f>MID(P9,FIND(";",P9)+1,LEN(P9)-FIND(";",P9))</f>
+        <f t="shared" si="66"/>
         <v>601,8</v>
       </c>
       <c r="D206" s="6" t="s">
@@ -9886,16 +9886,16 @@
         <v>600</v>
       </c>
       <c r="F206" s="7">
-        <f>D206-B206</f>
+        <f t="shared" si="67"/>
         <v>-0.19999999999998863</v>
       </c>
       <c r="G206" s="2">
-        <f>E206-C206</f>
+        <f t="shared" si="68"/>
         <v>-1.7999999999999545</v>
       </c>
       <c r="H206" s="2">
-        <f t="shared" si="12"/>
-        <v>1.9999999999999432</v>
+        <f t="shared" si="54"/>
+        <v>1.8110770276274368</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="4"/>
@@ -9913,11 +9913,11 @@
     <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="6" t="str">
-        <f>LEFT(P10,FIND(";",P10)-1)</f>
+        <f t="shared" si="65"/>
         <v>301,2</v>
       </c>
       <c r="C207" s="6" t="str">
-        <f>MID(P10,FIND(";",P10)+1,LEN(P10)-FIND(";",P10))</f>
+        <f t="shared" si="66"/>
         <v>601,4</v>
       </c>
       <c r="D207" s="6" t="s">
@@ -9927,16 +9927,16 @@
         <v>600</v>
       </c>
       <c r="F207" s="7">
-        <f>D207-B207</f>
+        <f t="shared" si="67"/>
         <v>-1.1999999999999886</v>
       </c>
       <c r="G207" s="2">
-        <f>E207-C207</f>
+        <f t="shared" si="68"/>
         <v>-1.3999999999999773</v>
       </c>
       <c r="H207" s="2">
-        <f t="shared" si="12"/>
-        <v>2.5999999999999659</v>
+        <f t="shared" si="54"/>
+        <v>1.8439088914585529</v>
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="4"/>
@@ -9954,11 +9954,11 @@
     <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="6" t="str">
-        <f>LEFT(P11,FIND(";",P11)-1)</f>
+        <f t="shared" si="65"/>
         <v>352,2</v>
       </c>
       <c r="C208" s="6" t="str">
-        <f>MID(P11,FIND(";",P11)+1,LEN(P11)-FIND(";",P11))</f>
+        <f t="shared" si="66"/>
         <v>601,0</v>
       </c>
       <c r="D208" s="6" t="s">
@@ -9968,16 +9968,16 @@
         <v>600</v>
       </c>
       <c r="F208" s="7">
-        <f>D208-B208</f>
+        <f t="shared" si="67"/>
         <v>-2.1999999999999886</v>
       </c>
       <c r="G208" s="2">
-        <f>E208-C208</f>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H208" s="2">
-        <f t="shared" si="12"/>
-        <v>3.1999999999999886</v>
+        <f t="shared" si="54"/>
+        <v>2.4166091947189039</v>
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="4"/>
@@ -9995,11 +9995,11 @@
     <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="6" t="str">
-        <f>LEFT(P12,FIND(";",P12)-1)</f>
+        <f t="shared" si="65"/>
         <v>400,9</v>
       </c>
       <c r="C209" s="6" t="str">
-        <f>MID(P12,FIND(";",P12)+1,LEN(P12)-FIND(";",P12))</f>
+        <f t="shared" si="66"/>
         <v>601,8</v>
       </c>
       <c r="D209" s="6" t="s">
@@ -10009,16 +10009,16 @@
         <v>600</v>
       </c>
       <c r="F209" s="7">
-        <f>D209-B209</f>
+        <f t="shared" si="67"/>
         <v>-0.89999999999997726</v>
       </c>
       <c r="G209" s="2">
-        <f>E209-C209</f>
+        <f t="shared" si="68"/>
         <v>-1.7999999999999545</v>
       </c>
       <c r="H209" s="2">
-        <f t="shared" si="12"/>
-        <v>2.6999999999999318</v>
+        <f t="shared" si="54"/>
+        <v>2.01246117974976</v>
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="4"/>
@@ -10036,11 +10036,11 @@
     <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="6" t="str">
-        <f>LEFT(P13,FIND(";",P13)-1)</f>
+        <f t="shared" si="65"/>
         <v>450,8</v>
       </c>
       <c r="C210" s="6" t="str">
-        <f>MID(P13,FIND(";",P13)+1,LEN(P13)-FIND(";",P13))</f>
+        <f t="shared" si="66"/>
         <v>602,6</v>
       </c>
       <c r="D210" s="6" t="s">
@@ -10050,16 +10050,16 @@
         <v>600</v>
       </c>
       <c r="F210" s="7">
-        <f>D210-B210</f>
+        <f t="shared" si="67"/>
         <v>-0.80000000000001137</v>
       </c>
       <c r="G210" s="2">
-        <f>E210-C210</f>
+        <f t="shared" si="68"/>
         <v>-2.6000000000000227</v>
       </c>
       <c r="H210" s="2">
-        <f t="shared" si="12"/>
-        <v>3.4000000000000341</v>
+        <f t="shared" si="54"/>
+        <v>2.7202941017471138</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="4"/>
@@ -10077,11 +10077,11 @@
     <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="6" t="str">
-        <f>LEFT(P14,FIND(";",P14)-1)</f>
+        <f t="shared" si="65"/>
         <v>503,1</v>
       </c>
       <c r="C211" s="6" t="str">
-        <f>MID(P14,FIND(";",P14)+1,LEN(P14)-FIND(";",P14))</f>
+        <f t="shared" si="66"/>
         <v>603,3</v>
       </c>
       <c r="D211" s="6" t="s">
@@ -10091,16 +10091,16 @@
         <v>600</v>
       </c>
       <c r="F211" s="7">
-        <f>D211-B211</f>
+        <f t="shared" si="67"/>
         <v>-3.1000000000000227</v>
       </c>
       <c r="G211" s="2">
-        <f>E211-C211</f>
+        <f t="shared" si="68"/>
         <v>-3.2999999999999545</v>
       </c>
       <c r="H211" s="2">
-        <f t="shared" si="12"/>
-        <v>6.3999999999999773</v>
+        <f t="shared" si="54"/>
+        <v>4.5276925690686909</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="4"/>
@@ -10118,11 +10118,11 @@
     <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="6" t="str">
-        <f>LEFT(P15,FIND(";",P15)-1)</f>
+        <f t="shared" si="65"/>
         <v>554,3</v>
       </c>
       <c r="C212" s="6" t="str">
-        <f>MID(P15,FIND(";",P15)+1,LEN(P15)-FIND(";",P15))</f>
+        <f t="shared" si="66"/>
         <v>604,1</v>
       </c>
       <c r="D212" s="6" t="s">
@@ -10132,21 +10132,21 @@
         <v>600</v>
       </c>
       <c r="F212" s="7">
-        <f>D212-B212</f>
+        <f t="shared" si="67"/>
         <v>-4.2999999999999545</v>
       </c>
       <c r="G212" s="2">
-        <f>E212-C212</f>
+        <f t="shared" si="68"/>
         <v>-4.1000000000000227</v>
       </c>
       <c r="H212" s="2">
-        <f t="shared" si="12"/>
-        <v>8.3999999999999773</v>
+        <f t="shared" si="54"/>
+        <v>5.9413803110051626</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="4">
         <f>AVERAGE(H200:H212)</f>
-        <v>3.2692307692307567</v>
+        <v>2.4381927706991431</v>
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="6"/>
@@ -10184,11 +10184,11 @@
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="6" t="str">
-        <f>LEFT(Q3,FIND(";",Q3)-1)</f>
+        <f t="shared" ref="B214:B226" si="70">LEFT(Q3,FIND(";",Q3)-1)</f>
         <v>-48,4</v>
       </c>
       <c r="C214" s="6" t="str">
-        <f>MID(Q3,FIND(";",Q3)+1,LEN(Q3)-FIND(";",Q3))</f>
+        <f t="shared" ref="C214:C226" si="71">MID(Q3,FIND(";",Q3)+1,LEN(Q3)-FIND(";",Q3))</f>
         <v>651,5</v>
       </c>
       <c r="D214" s="6" t="s">
@@ -10198,16 +10198,16 @@
         <v>650</v>
       </c>
       <c r="F214" s="7">
-        <f>D214-B214</f>
+        <f t="shared" ref="F214:F226" si="72">D214-B214</f>
         <v>-1.6000000000000014</v>
       </c>
       <c r="G214" s="2">
-        <f>E214-C214</f>
+        <f t="shared" ref="G214:G226" si="73">E214-C214</f>
         <v>-1.5</v>
       </c>
       <c r="H214" s="2">
-        <f t="shared" ref="H214" si="16">ABS(F214)+ABS(G214)</f>
-        <v>3.1000000000000014</v>
+        <f t="shared" ref="H214" si="74">SQRT(ABS(F214)^2+ABS(G214)^2)</f>
+        <v>2.193171219946132</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="4"/>
@@ -10225,11 +10225,11 @@
     <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="6" t="str">
-        <f>LEFT(Q4,FIND(";",Q4)-1)</f>
+        <f t="shared" si="70"/>
         <v>1,2</v>
       </c>
       <c r="C215" s="6" t="str">
-        <f>MID(Q4,FIND(";",Q4)+1,LEN(Q4)-FIND(";",Q4))</f>
+        <f t="shared" si="71"/>
         <v>652,3</v>
       </c>
       <c r="D215" s="6" t="s">
@@ -10239,16 +10239,16 @@
         <v>650</v>
       </c>
       <c r="F215" s="7">
-        <f>D215-B215</f>
+        <f t="shared" si="72"/>
         <v>-1.2</v>
       </c>
       <c r="G215" s="2">
-        <f>E215-C215</f>
+        <f t="shared" si="73"/>
         <v>-2.2999999999999545</v>
       </c>
       <c r="H215" s="2">
-        <f t="shared" si="12"/>
-        <v>3.4999999999999547</v>
+        <f t="shared" si="54"/>
+        <v>2.5942243542145293</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="4"/>
@@ -10266,11 +10266,11 @@
     <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="6" t="str">
-        <f>LEFT(Q5,FIND(";",Q5)-1)</f>
+        <f t="shared" si="70"/>
         <v>51,9</v>
       </c>
       <c r="C216" s="6" t="str">
-        <f>MID(Q5,FIND(";",Q5)+1,LEN(Q5)-FIND(";",Q5))</f>
+        <f t="shared" si="71"/>
         <v>650,8</v>
       </c>
       <c r="D216" s="6" t="s">
@@ -10280,16 +10280,16 @@
         <v>650</v>
       </c>
       <c r="F216" s="7">
-        <f>D216-B216</f>
+        <f t="shared" si="72"/>
         <v>-1.8999999999999986</v>
       </c>
       <c r="G216" s="2">
-        <f>E216-C216</f>
+        <f t="shared" si="73"/>
         <v>-0.79999999999995453</v>
       </c>
       <c r="H216" s="2">
-        <f t="shared" si="12"/>
-        <v>2.6999999999999531</v>
+        <f t="shared" si="54"/>
+        <v>2.0615528128088112</v>
       </c>
       <c r="I216" s="2"/>
       <c r="J216" s="4"/>
@@ -10307,11 +10307,11 @@
     <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="6" t="str">
-        <f>LEFT(Q6,FIND(";",Q6)-1)</f>
+        <f t="shared" si="70"/>
         <v>101,5</v>
       </c>
       <c r="C217" s="6" t="str">
-        <f>MID(Q6,FIND(";",Q6)+1,LEN(Q6)-FIND(";",Q6))</f>
+        <f t="shared" si="71"/>
         <v>651,6</v>
       </c>
       <c r="D217" s="6" t="s">
@@ -10321,16 +10321,16 @@
         <v>650</v>
       </c>
       <c r="F217" s="7">
-        <f>D217-B217</f>
+        <f t="shared" si="72"/>
         <v>-1.5</v>
       </c>
       <c r="G217" s="2">
-        <f>E217-C217</f>
+        <f t="shared" si="73"/>
         <v>-1.6000000000000227</v>
       </c>
       <c r="H217" s="2">
-        <f t="shared" si="12"/>
-        <v>3.1000000000000227</v>
+        <f t="shared" si="54"/>
+        <v>2.1931712199461475</v>
       </c>
       <c r="I217" s="2"/>
       <c r="J217" s="4"/>
@@ -10348,11 +10348,11 @@
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="6" t="str">
-        <f>LEFT(Q7,FIND(";",Q7)-1)</f>
+        <f t="shared" si="70"/>
         <v>151,2</v>
       </c>
       <c r="C218" s="6" t="str">
-        <f>MID(Q7,FIND(";",Q7)+1,LEN(Q7)-FIND(";",Q7))</f>
+        <f t="shared" si="71"/>
         <v>651,2</v>
       </c>
       <c r="D218" s="6" t="s">
@@ -10362,16 +10362,16 @@
         <v>650</v>
       </c>
       <c r="F218" s="7">
-        <f>D218-B218</f>
+        <f t="shared" si="72"/>
         <v>-1.1999999999999886</v>
       </c>
       <c r="G218" s="2">
-        <f>E218-C218</f>
+        <f t="shared" si="73"/>
         <v>-1.2000000000000455</v>
       </c>
       <c r="H218" s="2">
-        <f t="shared" si="12"/>
-        <v>2.4000000000000341</v>
+        <f t="shared" si="54"/>
+        <v>1.697056274847738</v>
       </c>
       <c r="I218" s="2"/>
       <c r="J218" s="4"/>
@@ -10389,11 +10389,11 @@
     <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="6" t="str">
-        <f>LEFT(Q8,FIND(";",Q8)-1)</f>
+        <f t="shared" si="70"/>
         <v>202,0</v>
       </c>
       <c r="C219" s="6" t="str">
-        <f>MID(Q8,FIND(";",Q8)+1,LEN(Q8)-FIND(";",Q8))</f>
+        <f t="shared" si="71"/>
         <v>652,0</v>
       </c>
       <c r="D219" s="6" t="s">
@@ -10403,16 +10403,16 @@
         <v>650</v>
       </c>
       <c r="F219" s="7">
-        <f>D219-B219</f>
+        <f t="shared" si="72"/>
         <v>-2</v>
       </c>
       <c r="G219" s="2">
-        <f>E219-C219</f>
+        <f t="shared" si="73"/>
         <v>-2</v>
       </c>
       <c r="H219" s="2">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="54"/>
+        <v>2.8284271247461903</v>
       </c>
       <c r="I219" s="2"/>
       <c r="J219" s="4"/>
@@ -10430,11 +10430,11 @@
     <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="6" t="str">
-        <f>LEFT(Q9,FIND(";",Q9)-1)</f>
+        <f t="shared" si="70"/>
         <v>251,8</v>
       </c>
       <c r="C220" s="6" t="str">
-        <f>MID(Q9,FIND(";",Q9)+1,LEN(Q9)-FIND(";",Q9))</f>
+        <f t="shared" si="71"/>
         <v>651,7</v>
       </c>
       <c r="D220" s="6" t="s">
@@ -10444,16 +10444,16 @@
         <v>650</v>
       </c>
       <c r="F220" s="7">
-        <f>D220-B220</f>
+        <f t="shared" si="72"/>
         <v>-1.8000000000000114</v>
       </c>
       <c r="G220" s="2">
-        <f>E220-C220</f>
+        <f t="shared" si="73"/>
         <v>-1.7000000000000455</v>
       </c>
       <c r="H220" s="2">
-        <f t="shared" si="12"/>
-        <v>3.5000000000000568</v>
+        <f t="shared" si="54"/>
+        <v>2.4758836806280291</v>
       </c>
       <c r="I220" s="2"/>
       <c r="J220" s="4"/>
@@ -10471,11 +10471,11 @@
     <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="6" t="str">
-        <f>LEFT(Q10,FIND(";",Q10)-1)</f>
+        <f t="shared" si="70"/>
         <v>301,5</v>
       </c>
       <c r="C221" s="6" t="str">
-        <f>MID(Q10,FIND(";",Q10)+1,LEN(Q10)-FIND(";",Q10))</f>
+        <f t="shared" si="71"/>
         <v>652,5</v>
       </c>
       <c r="D221" s="6" t="s">
@@ -10485,16 +10485,16 @@
         <v>650</v>
       </c>
       <c r="F221" s="7">
-        <f>D221-B221</f>
+        <f t="shared" si="72"/>
         <v>-1.5</v>
       </c>
       <c r="G221" s="2">
-        <f>E221-C221</f>
+        <f t="shared" si="73"/>
         <v>-2.5</v>
       </c>
       <c r="H221" s="2">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="54"/>
+        <v>2.9154759474226504</v>
       </c>
       <c r="I221" s="2"/>
       <c r="J221" s="4"/>
@@ -10512,11 +10512,11 @@
     <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="6" t="str">
-        <f>LEFT(Q11,FIND(";",Q11)-1)</f>
+        <f t="shared" si="70"/>
         <v>351,4</v>
       </c>
       <c r="C222" s="6" t="str">
-        <f>MID(Q11,FIND(";",Q11)+1,LEN(Q11)-FIND(";",Q11))</f>
+        <f t="shared" si="71"/>
         <v>651,0</v>
       </c>
       <c r="D222" s="6" t="s">
@@ -10526,16 +10526,16 @@
         <v>650</v>
       </c>
       <c r="F222" s="7">
-        <f>D222-B222</f>
+        <f t="shared" si="72"/>
         <v>-1.3999999999999773</v>
       </c>
       <c r="G222" s="2">
-        <f>E222-C222</f>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="H222" s="2">
-        <f t="shared" si="12"/>
-        <v>2.3999999999999773</v>
+        <f t="shared" si="54"/>
+        <v>1.7204650534085069</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="4"/>
@@ -10553,11 +10553,11 @@
     <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="6" t="str">
-        <f>LEFT(Q12,FIND(";",Q12)-1)</f>
+        <f t="shared" si="70"/>
         <v>403,5</v>
       </c>
       <c r="C223" s="6" t="str">
-        <f>MID(Q12,FIND(";",Q12)+1,LEN(Q12)-FIND(";",Q12))</f>
+        <f t="shared" si="71"/>
         <v>651,8</v>
       </c>
       <c r="D223" s="6" t="s">
@@ -10567,16 +10567,16 @@
         <v>650</v>
       </c>
       <c r="F223" s="7">
-        <f>D223-B223</f>
+        <f t="shared" si="72"/>
         <v>-3.5</v>
       </c>
       <c r="G223" s="2">
-        <f>E223-C223</f>
+        <f t="shared" si="73"/>
         <v>-1.7999999999999545</v>
       </c>
       <c r="H223" s="2">
-        <f t="shared" si="12"/>
-        <v>5.2999999999999545</v>
+        <f t="shared" si="54"/>
+        <v>3.9357337308308646</v>
       </c>
       <c r="I223" s="2"/>
       <c r="J223" s="4"/>
@@ -10594,11 +10594,11 @@
     <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="6" t="str">
-        <f>LEFT(Q13,FIND(";",Q13)-1)</f>
+        <f t="shared" si="70"/>
         <v>454,6</v>
       </c>
       <c r="C224" s="6" t="str">
-        <f>MID(Q13,FIND(";",Q13)+1,LEN(Q13)-FIND(";",Q13))</f>
+        <f t="shared" si="71"/>
         <v>654,9</v>
       </c>
       <c r="D224" s="6" t="s">
@@ -10608,16 +10608,16 @@
         <v>650</v>
       </c>
       <c r="F224" s="7">
-        <f>D224-B224</f>
+        <f t="shared" si="72"/>
         <v>-4.6000000000000227</v>
       </c>
       <c r="G224" s="2">
-        <f>E224-C224</f>
+        <f t="shared" si="73"/>
         <v>-4.8999999999999773</v>
       </c>
       <c r="H224" s="2">
-        <f t="shared" ref="H224:H240" si="17">ABS(F224)+ABS(G224)</f>
-        <v>9.5</v>
+        <f t="shared" ref="H224:H240" si="75">SQRT(ABS(F224)^2+ABS(G224)^2)</f>
+        <v>6.7208630398186209</v>
       </c>
       <c r="I224" s="2"/>
       <c r="J224" s="4"/>
@@ -10635,11 +10635,11 @@
     <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="6" t="str">
-        <f>LEFT(Q14,FIND(";",Q14)-1)</f>
+        <f t="shared" si="70"/>
         <v>503,4</v>
       </c>
       <c r="C225" s="6" t="str">
-        <f>MID(Q14,FIND(";",Q14)+1,LEN(Q14)-FIND(";",Q14))</f>
+        <f t="shared" si="71"/>
         <v>653,4</v>
       </c>
       <c r="D225" s="6" t="s">
@@ -10649,16 +10649,16 @@
         <v>650</v>
       </c>
       <c r="F225" s="7">
-        <f>D225-B225</f>
+        <f t="shared" si="72"/>
         <v>-3.3999999999999773</v>
       </c>
       <c r="G225" s="2">
-        <f>E225-C225</f>
+        <f t="shared" si="73"/>
         <v>-3.3999999999999773</v>
       </c>
       <c r="H225" s="2">
-        <f t="shared" si="17"/>
-        <v>6.7999999999999545</v>
+        <f t="shared" si="75"/>
+        <v>4.8083261120684915</v>
       </c>
       <c r="I225" s="2"/>
       <c r="J225" s="4"/>
@@ -10676,11 +10676,11 @@
     <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="6" t="str">
-        <f>LEFT(Q15,FIND(";",Q15)-1)</f>
+        <f t="shared" si="70"/>
         <v>554,5</v>
       </c>
       <c r="C226" s="6" t="str">
-        <f>MID(Q15,FIND(";",Q15)+1,LEN(Q15)-FIND(";",Q15))</f>
+        <f t="shared" si="71"/>
         <v>655,3</v>
       </c>
       <c r="D226" s="6" t="s">
@@ -10690,21 +10690,21 @@
         <v>650</v>
       </c>
       <c r="F226" s="7">
-        <f>D226-B226</f>
+        <f t="shared" si="72"/>
         <v>-4.5</v>
       </c>
       <c r="G226" s="2">
-        <f>E226-C226</f>
+        <f t="shared" si="73"/>
         <v>-5.2999999999999545</v>
       </c>
       <c r="H226" s="2">
-        <f t="shared" si="17"/>
-        <v>9.7999999999999545</v>
+        <f t="shared" si="75"/>
+        <v>6.9526973183074441</v>
       </c>
       <c r="I226" s="2"/>
       <c r="J226" s="4">
         <f>AVERAGE(H214:H226)</f>
-        <v>4.6230769230769129</v>
+        <v>3.3151575299226272</v>
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="6"/>
@@ -10742,11 +10742,11 @@
     <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="6" t="str">
-        <f>LEFT(R3,FIND(";",R3)-1)</f>
+        <f t="shared" ref="B228:B240" si="76">LEFT(R3,FIND(";",R3)-1)</f>
         <v>-47,9</v>
       </c>
       <c r="C228" s="6" t="str">
-        <f>MID(R3,FIND(";",R3)+1,LEN(R3)-FIND(";",R3))</f>
+        <f t="shared" ref="C228:C240" si="77">MID(R3,FIND(";",R3)+1,LEN(R3)-FIND(";",R3))</f>
         <v>702,4</v>
       </c>
       <c r="D228" s="6" t="s">
@@ -10756,16 +10756,16 @@
         <v>700</v>
       </c>
       <c r="F228" s="7">
-        <f>D228-B228</f>
+        <f t="shared" ref="F228:F240" si="78">D228-B228</f>
         <v>-2.1000000000000014</v>
       </c>
       <c r="G228" s="2">
-        <f>E228-C228</f>
+        <f t="shared" ref="G228:G240" si="79">E228-C228</f>
         <v>-2.3999999999999773</v>
       </c>
       <c r="H228" s="2">
-        <f t="shared" ref="H228" si="18">ABS(F228)+ABS(G228)</f>
-        <v>4.4999999999999787</v>
+        <f t="shared" ref="H228" si="80">SQRT(ABS(F228)^2+ABS(G228)^2)</f>
+        <v>3.1890437438203785</v>
       </c>
       <c r="I228" s="2"/>
       <c r="J228" s="4"/>
@@ -10783,11 +10783,11 @@
     <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="6" t="str">
-        <f>LEFT(R4,FIND(";",R4)-1)</f>
+        <f t="shared" si="76"/>
         <v>2,8</v>
       </c>
       <c r="C229" s="6" t="str">
-        <f>MID(R4,FIND(";",R4)+1,LEN(R4)-FIND(";",R4))</f>
+        <f t="shared" si="77"/>
         <v>702,1</v>
       </c>
       <c r="D229" s="6" t="s">
@@ -10797,16 +10797,16 @@
         <v>700</v>
       </c>
       <c r="F229" s="7">
-        <f>D229-B229</f>
+        <f t="shared" si="78"/>
         <v>-2.8</v>
       </c>
       <c r="G229" s="2">
-        <f>E229-C229</f>
+        <f t="shared" si="79"/>
         <v>-2.1000000000000227</v>
       </c>
       <c r="H229" s="2">
-        <f t="shared" si="17"/>
-        <v>4.9000000000000226</v>
+        <f t="shared" si="75"/>
+        <v>3.5000000000000133</v>
       </c>
       <c r="I229" s="2"/>
       <c r="J229" s="4"/>
@@ -10824,11 +10824,11 @@
     <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="6" t="str">
-        <f>LEFT(R5,FIND(";",R5)-1)</f>
+        <f t="shared" si="76"/>
         <v>52,3</v>
       </c>
       <c r="C230" s="6" t="str">
-        <f>MID(R5,FIND(";",R5)+1,LEN(R5)-FIND(";",R5))</f>
+        <f t="shared" si="77"/>
         <v>701,8</v>
       </c>
       <c r="D230" s="6" t="s">
@@ -10838,16 +10838,16 @@
         <v>700</v>
       </c>
       <c r="F230" s="7">
-        <f>D230-B230</f>
+        <f t="shared" si="78"/>
         <v>-2.2999999999999972</v>
       </c>
       <c r="G230" s="2">
-        <f>E230-C230</f>
+        <f t="shared" si="79"/>
         <v>-1.7999999999999545</v>
       </c>
       <c r="H230" s="2">
-        <f t="shared" si="17"/>
-        <v>4.0999999999999517</v>
+        <f t="shared" si="75"/>
+        <v>2.9206163733020163</v>
       </c>
       <c r="I230" s="2"/>
       <c r="J230" s="4"/>
@@ -10865,11 +10865,11 @@
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="6" t="str">
-        <f>LEFT(R6,FIND(";",R6)-1)</f>
+        <f t="shared" si="76"/>
         <v>100,8</v>
       </c>
       <c r="C231" s="6" t="str">
-        <f>MID(R6,FIND(";",R6)+1,LEN(R6)-FIND(";",R6))</f>
+        <f t="shared" si="77"/>
         <v>702,6</v>
       </c>
       <c r="D231" s="6" t="s">
@@ -10879,16 +10879,16 @@
         <v>700</v>
       </c>
       <c r="F231" s="7">
-        <f>D231-B231</f>
+        <f t="shared" si="78"/>
         <v>-0.79999999999999716</v>
       </c>
       <c r="G231" s="2">
-        <f>E231-C231</f>
+        <f t="shared" si="79"/>
         <v>-2.6000000000000227</v>
       </c>
       <c r="H231" s="2">
-        <f t="shared" si="17"/>
-        <v>3.4000000000000199</v>
+        <f t="shared" si="75"/>
+        <v>2.7202941017471094</v>
       </c>
       <c r="I231" s="2"/>
       <c r="J231" s="4"/>
@@ -10906,11 +10906,11 @@
     <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="6" t="str">
-        <f>LEFT(R7,FIND(";",R7)-1)</f>
+        <f t="shared" si="76"/>
         <v>150,4</v>
       </c>
       <c r="C232" s="6" t="str">
-        <f>MID(R7,FIND(";",R7)+1,LEN(R7)-FIND(";",R7))</f>
+        <f t="shared" si="77"/>
         <v>702,3</v>
       </c>
       <c r="D232" s="6" t="s">
@@ -10920,16 +10920,16 @@
         <v>700</v>
       </c>
       <c r="F232" s="7">
-        <f>D232-B232</f>
+        <f t="shared" si="78"/>
         <v>-0.40000000000000568</v>
       </c>
       <c r="G232" s="2">
-        <f>E232-C232</f>
+        <f t="shared" si="79"/>
         <v>-2.2999999999999545</v>
       </c>
       <c r="H232" s="2">
-        <f t="shared" si="17"/>
-        <v>2.6999999999999602</v>
+        <f t="shared" si="75"/>
+        <v>2.3345235059857066</v>
       </c>
       <c r="I232" s="2"/>
       <c r="J232" s="4"/>
@@ -10947,11 +10947,11 @@
     <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="6" t="str">
-        <f>LEFT(R8,FIND(";",R8)-1)</f>
+        <f t="shared" si="76"/>
         <v>201,3</v>
       </c>
       <c r="C233" s="6" t="str">
-        <f>MID(R8,FIND(";",R8)+1,LEN(R8)-FIND(";",R8))</f>
+        <f t="shared" si="77"/>
         <v>701,9</v>
       </c>
       <c r="D233" s="6" t="s">
@@ -10961,16 +10961,16 @@
         <v>700</v>
       </c>
       <c r="F233" s="7">
-        <f>D233-B233</f>
+        <f t="shared" si="78"/>
         <v>-1.3000000000000114</v>
       </c>
       <c r="G233" s="2">
-        <f>E233-C233</f>
+        <f t="shared" si="79"/>
         <v>-1.8999999999999773</v>
       </c>
       <c r="H233" s="2">
-        <f t="shared" si="17"/>
-        <v>3.1999999999999886</v>
+        <f t="shared" si="75"/>
+        <v>2.3021728866442555</v>
       </c>
       <c r="I233" s="2"/>
       <c r="J233" s="4"/>
@@ -10988,11 +10988,11 @@
     <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="6" t="str">
-        <f>LEFT(R9,FIND(";",R9)-1)</f>
+        <f t="shared" si="76"/>
         <v>252,1</v>
       </c>
       <c r="C234" s="6" t="str">
-        <f>MID(R9,FIND(";",R9)+1,LEN(R9)-FIND(";",R9))</f>
+        <f t="shared" si="77"/>
         <v>702,7</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -11002,16 +11002,16 @@
         <v>700</v>
       </c>
       <c r="F234" s="7">
-        <f>D234-B234</f>
+        <f t="shared" si="78"/>
         <v>-2.0999999999999943</v>
       </c>
       <c r="G234" s="2">
-        <f>E234-C234</f>
+        <f t="shared" si="79"/>
         <v>-2.7000000000000455</v>
       </c>
       <c r="H234" s="2">
-        <f t="shared" si="17"/>
-        <v>4.8000000000000398</v>
+        <f t="shared" si="75"/>
+        <v>3.4205262752974464</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="4"/>
@@ -11029,11 +11029,11 @@
     <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="6" t="str">
-        <f>LEFT(R10,FIND(";",R10)-1)</f>
+        <f t="shared" si="76"/>
         <v>301,9</v>
       </c>
       <c r="C235" s="6" t="str">
-        <f>MID(R10,FIND(";",R10)+1,LEN(R10)-FIND(";",R10))</f>
+        <f t="shared" si="77"/>
         <v>702,4</v>
       </c>
       <c r="D235" s="6" t="s">
@@ -11043,16 +11043,16 @@
         <v>700</v>
       </c>
       <c r="F235" s="7">
-        <f>D235-B235</f>
+        <f t="shared" si="78"/>
         <v>-1.8999999999999773</v>
       </c>
       <c r="G235" s="2">
-        <f>E235-C235</f>
+        <f t="shared" si="79"/>
         <v>-2.3999999999999773</v>
       </c>
       <c r="H235" s="2">
-        <f t="shared" si="17"/>
-        <v>4.2999999999999545</v>
+        <f t="shared" si="75"/>
+        <v>3.0610455730027613</v>
       </c>
       <c r="I235" s="2"/>
       <c r="J235" s="4"/>
@@ -11070,11 +11070,11 @@
     <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="6" t="str">
-        <f>LEFT(R11,FIND(";",R11)-1)</f>
+        <f t="shared" si="76"/>
         <v>350,6</v>
       </c>
       <c r="C236" s="6" t="str">
-        <f>MID(R11,FIND(";",R11)+1,LEN(R11)-FIND(";",R11))</f>
+        <f t="shared" si="77"/>
         <v>703,3</v>
       </c>
       <c r="D236" s="6" t="s">
@@ -11084,16 +11084,16 @@
         <v>700</v>
       </c>
       <c r="F236" s="7">
-        <f>D236-B236</f>
+        <f t="shared" si="78"/>
         <v>-0.60000000000002274</v>
       </c>
       <c r="G236" s="2">
-        <f>E236-C236</f>
+        <f t="shared" si="79"/>
         <v>-3.2999999999999545</v>
       </c>
       <c r="H236" s="2">
-        <f t="shared" si="17"/>
-        <v>3.8999999999999773</v>
+        <f t="shared" si="75"/>
+        <v>3.3541019662496439</v>
       </c>
       <c r="I236" s="2"/>
       <c r="J236" s="4"/>
@@ -11111,11 +11111,11 @@
     <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="6" t="str">
-        <f>LEFT(R12,FIND(";",R12)-1)</f>
+        <f t="shared" si="76"/>
         <v>402,7</v>
       </c>
       <c r="C237" s="6" t="str">
-        <f>MID(R12,FIND(";",R12)+1,LEN(R12)-FIND(";",R12))</f>
+        <f t="shared" si="77"/>
         <v>702,9</v>
       </c>
       <c r="D237" s="6" t="s">
@@ -11125,16 +11125,16 @@
         <v>700</v>
       </c>
       <c r="F237" s="7">
-        <f>D237-B237</f>
+        <f t="shared" si="78"/>
         <v>-2.6999999999999886</v>
       </c>
       <c r="G237" s="2">
-        <f>E237-C237</f>
+        <f t="shared" si="79"/>
         <v>-2.8999999999999773</v>
       </c>
       <c r="H237" s="2">
-        <f t="shared" si="17"/>
-        <v>5.5999999999999659</v>
+        <f t="shared" si="75"/>
+        <v>3.9623225512317655</v>
       </c>
       <c r="I237" s="2"/>
       <c r="J237" s="4"/>
@@ -11152,11 +11152,11 @@
     <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="6" t="str">
-        <f>LEFT(R13,FIND(";",R13)-1)</f>
+        <f t="shared" si="76"/>
         <v>452,6</v>
       </c>
       <c r="C238" s="6" t="str">
-        <f>MID(R13,FIND(";",R13)+1,LEN(R13)-FIND(";",R13))</f>
+        <f t="shared" si="77"/>
         <v>702,6</v>
       </c>
       <c r="D238" s="6" t="s">
@@ -11166,16 +11166,16 @@
         <v>700</v>
       </c>
       <c r="F238" s="7">
-        <f>D238-B238</f>
+        <f t="shared" si="78"/>
         <v>-2.6000000000000227</v>
       </c>
       <c r="G238" s="2">
-        <f>E238-C238</f>
+        <f t="shared" si="79"/>
         <v>-2.6000000000000227</v>
       </c>
       <c r="H238" s="2">
-        <f t="shared" si="17"/>
-        <v>5.2000000000000455</v>
+        <f t="shared" si="75"/>
+        <v>3.6769552621700794</v>
       </c>
       <c r="I238" s="2"/>
       <c r="J238" s="4"/>
@@ -11193,11 +11193,11 @@
     <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="6" t="str">
-        <f>LEFT(R14,FIND(";",R14)-1)</f>
+        <f t="shared" si="76"/>
         <v>503,7</v>
       </c>
       <c r="C239" s="6" t="str">
-        <f>MID(R14,FIND(";",R14)+1,LEN(R14)-FIND(";",R14))</f>
+        <f t="shared" si="77"/>
         <v>705,7</v>
       </c>
       <c r="D239" s="6" t="s">
@@ -11207,16 +11207,16 @@
         <v>700</v>
       </c>
       <c r="F239" s="7">
-        <f>D239-B239</f>
+        <f t="shared" si="78"/>
         <v>-3.6999999999999886</v>
       </c>
       <c r="G239" s="2">
-        <f>E239-C239</f>
+        <f t="shared" si="79"/>
         <v>-5.7000000000000455</v>
       </c>
       <c r="H239" s="2">
-        <f t="shared" si="17"/>
-        <v>9.4000000000000341</v>
+        <f t="shared" si="75"/>
+        <v>6.795586803212835</v>
       </c>
       <c r="I239" s="2"/>
       <c r="J239" s="4"/>
@@ -11234,11 +11234,11 @@
     <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="6" t="str">
-        <f>LEFT(R15,FIND(";",R15)-1)</f>
+        <f t="shared" si="76"/>
         <v>554,9</v>
       </c>
       <c r="C240" s="6" t="str">
-        <f>MID(R15,FIND(";",R15)+1,LEN(R15)-FIND(";",R15))</f>
+        <f t="shared" si="77"/>
         <v>706,5</v>
       </c>
       <c r="D240" s="6" t="s">
@@ -11248,21 +11248,21 @@
         <v>700</v>
       </c>
       <c r="F240" s="7">
-        <f>D240-B240</f>
+        <f t="shared" si="78"/>
         <v>-4.8999999999999773</v>
       </c>
       <c r="G240" s="2">
-        <f>E240-C240</f>
+        <f t="shared" si="79"/>
         <v>-6.5</v>
       </c>
       <c r="H240" s="2">
-        <f t="shared" si="17"/>
-        <v>11.399999999999977</v>
+        <f t="shared" si="75"/>
+        <v>8.1400245699874745</v>
       </c>
       <c r="I240" s="2"/>
       <c r="J240" s="4">
         <f>AVERAGE(H228:H240)</f>
-        <v>5.1846153846153786</v>
+        <v>3.7982472009731914</v>
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="6"/>
